--- a/aliendata_20180331.xlsx
+++ b/aliendata_20180331.xlsx
@@ -425,7 +425,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -439,18 +439,18 @@
         </is>
       </c>
       <c r="G2">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="I2">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="J2">
-        <v>112.11</v>
+        <v>97.11</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>male_Red</t>
+          <t>female_Red</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -483,18 +483,18 @@
         </is>
       </c>
       <c r="G3">
-        <v>16.33</v>
+        <v>13.33</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>33.1</t>
         </is>
       </c>
       <c r="I3">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="J3">
-        <v>115.57</v>
+        <v>100.57</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +513,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -527,18 +527,18 @@
         </is>
       </c>
       <c r="G4">
-        <v>16.45</v>
+        <v>19.45</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I4">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="J4">
-        <v>96.38</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,18 +571,18 @@
         </is>
       </c>
       <c r="G5">
-        <v>16.15</v>
+        <v>13.15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>22.8</t>
         </is>
       </c>
       <c r="I5">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="J5">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +601,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F_orange</t>
+          <t>male_orange</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -615,18 +615,18 @@
         </is>
       </c>
       <c r="G6">
-        <v>14.17</v>
+        <v>17.17</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="I6">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="J6">
-        <v>64.26000000000001</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>female_red</t>
+          <t>male_red</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -659,18 +659,18 @@
         </is>
       </c>
       <c r="G7">
-        <v>15.68</v>
+        <v>18.68</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="I7">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="J7">
-        <v>101.12</v>
+        <v>116.12</v>
       </c>
     </row>
     <row r="8">
@@ -689,7 +689,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -703,18 +703,18 @@
         </is>
       </c>
       <c r="G8">
-        <v>13.76</v>
+        <v>16.76</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="I8">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="J8">
-        <v>100.29</v>
+        <v>115.29</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +733,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -747,18 +747,18 @@
         </is>
       </c>
       <c r="G9">
-        <v>19.67</v>
+        <v>16.67</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="I9">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="J9">
-        <v>117.33</v>
+        <v>102.33</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -791,18 +791,18 @@
         </is>
       </c>
       <c r="G10">
-        <v>16.41</v>
+        <v>13.41</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="I10">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="J10">
-        <v>88.14</v>
+        <v>73.14</v>
       </c>
     </row>
     <row r="11">
@@ -821,7 +821,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -835,18 +835,18 @@
         </is>
       </c>
       <c r="G11">
-        <v>15.94</v>
+        <v>12.94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="I11">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="J11">
-        <v>98.58</v>
+        <v>83.58</v>
       </c>
     </row>
     <row r="12">
@@ -865,7 +865,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>female_orange</t>
+          <t>male_orange</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -879,18 +879,18 @@
         </is>
       </c>
       <c r="G12">
-        <v>11.37</v>
+        <v>14.37</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>24.6</t>
         </is>
       </c>
       <c r="I12">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="J12">
-        <v>110.71</v>
+        <v>125.71</v>
       </c>
     </row>
     <row r="13">
@@ -909,7 +909,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -923,18 +923,18 @@
         </is>
       </c>
       <c r="G13">
-        <v>16.67</v>
+        <v>13.67</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="I13">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="J13">
-        <v>106.84</v>
+        <v>91.84</v>
       </c>
     </row>
     <row r="14">
@@ -953,7 +953,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,18 +967,18 @@
         </is>
       </c>
       <c r="G14">
-        <v>11.04</v>
+        <v>14.04</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="I14">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="J14">
-        <v>95.52</v>
+        <v>110.52</v>
       </c>
     </row>
     <row r="15">
@@ -997,7 +997,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1011,18 +1011,18 @@
         </is>
       </c>
       <c r="G15">
-        <v>14.95</v>
+        <v>11.95</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I15">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="J15">
-        <v>103.18</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1055,18 +1055,18 @@
         </is>
       </c>
       <c r="G16">
-        <v>16.81</v>
+        <v>13.81</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="I16">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="J16">
-        <v>130.44</v>
+        <v>115.44</v>
       </c>
     </row>
     <row r="17">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MALE_purple</t>
+          <t>m_purple</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1143,18 +1143,18 @@
         </is>
       </c>
       <c r="G18">
-        <v>19.94</v>
+        <v>16.94</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>33.5</t>
         </is>
       </c>
       <c r="I18">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="J18">
-        <v>126.5</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="19">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1187,18 +1187,18 @@
         </is>
       </c>
       <c r="G19">
-        <v>16.98</v>
+        <v>19.98</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="I19">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="J19">
-        <v>84.89</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="20">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1231,18 +1231,18 @@
         </is>
       </c>
       <c r="G20">
-        <v>14.99</v>
+        <v>11.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="I20">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="J20">
-        <v>104.36</v>
+        <v>89.36</v>
       </c>
     </row>
     <row r="21">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Female_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1319,18 +1319,18 @@
         </is>
       </c>
       <c r="G22">
-        <v>17.79</v>
+        <v>20.79</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="I22">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="J22">
-        <v>101.21</v>
+        <v>116.21</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1363,18 +1363,18 @@
         </is>
       </c>
       <c r="G23">
-        <v>13.3</v>
+        <v>16.3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="I23">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="J23">
-        <v>87.39</v>
+        <v>102.39</v>
       </c>
     </row>
     <row r="24">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MALE_Orange</t>
+          <t>m_Orange</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>m_orange</t>
+          <t>f_orange</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1495,18 +1495,18 @@
         </is>
       </c>
       <c r="G26">
-        <v>14.42</v>
+        <v>11.42</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>19.9</t>
         </is>
       </c>
       <c r="I26">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J26">
-        <v>118.85</v>
+        <v>103.85</v>
       </c>
     </row>
     <row r="27">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>male_Orange</t>
+          <t>female_Orange</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1539,18 +1539,18 @@
         </is>
       </c>
       <c r="G27">
-        <v>16.61</v>
+        <v>13.61</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26.7</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="I27">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="J27">
-        <v>114.62</v>
+        <v>99.62</v>
       </c>
     </row>
     <row r="28">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Female_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1627,18 +1627,18 @@
         </is>
       </c>
       <c r="G29">
-        <v>12.77</v>
+        <v>15.77</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="I29">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="J29">
-        <v>102.21</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="30">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>male_orange</t>
+          <t>female_orange</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1671,18 +1671,18 @@
         </is>
       </c>
       <c r="G30">
-        <v>19.84</v>
+        <v>16.84</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="I30">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="J30">
-        <v>115.16</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="31">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1715,18 +1715,18 @@
         </is>
       </c>
       <c r="G31">
-        <v>13.79</v>
+        <v>10.79</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="I31">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J31">
-        <v>101.02</v>
+        <v>86.02</v>
       </c>
     </row>
     <row r="32">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1759,18 +1759,18 @@
         </is>
       </c>
       <c r="G32">
-        <v>18.47</v>
+        <v>15.47</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.9</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="I32">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="J32">
-        <v>89.73</v>
+        <v>74.73</v>
       </c>
     </row>
     <row r="33">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1803,18 +1803,18 @@
         </is>
       </c>
       <c r="G33">
-        <v>12.51</v>
+        <v>15.51</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="I33">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="J33">
-        <v>95.22</v>
+        <v>110.22</v>
       </c>
     </row>
     <row r="34">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1847,18 +1847,18 @@
         </is>
       </c>
       <c r="G34">
-        <v>15.12</v>
+        <v>18.12</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I34">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="J34">
-        <v>98.06999999999999</v>
+        <v>113.07</v>
       </c>
     </row>
     <row r="35">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>female_orange</t>
+          <t>male_orange</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,18 +1891,18 @@
         </is>
       </c>
       <c r="G35">
-        <v>13.25</v>
+        <v>16.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="I35">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="J35">
-        <v>83.47</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="36">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MALE_orange</t>
+          <t>m_orange</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1979,18 +1979,18 @@
         </is>
       </c>
       <c r="G37">
-        <v>15.09</v>
+        <v>18.09</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="I37">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="J37">
-        <v>95.06</v>
+        <v>110.06</v>
       </c>
     </row>
     <row r="38">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2023,18 +2023,18 @@
         </is>
       </c>
       <c r="G38">
-        <v>13.81</v>
+        <v>16.81</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="I38">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="J38">
-        <v>95.33</v>
+        <v>110.33</v>
       </c>
     </row>
     <row r="39">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2067,18 +2067,18 @@
         </is>
       </c>
       <c r="G39">
-        <v>13.35</v>
+        <v>16.35</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="I39">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="J39">
-        <v>117.08</v>
+        <v>132.08</v>
       </c>
     </row>
     <row r="40">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2111,18 +2111,18 @@
         </is>
       </c>
       <c r="G40">
-        <v>15.14</v>
+        <v>18.14</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="I40">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="J40">
-        <v>85.48999999999999</v>
+        <v>100.49</v>
       </c>
     </row>
     <row r="41">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2155,18 +2155,18 @@
         </is>
       </c>
       <c r="G41">
-        <v>13.58</v>
+        <v>16.58</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="I41">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="J41">
-        <v>96.61</v>
+        <v>111.61</v>
       </c>
     </row>
     <row r="42">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2199,18 +2199,18 @@
         </is>
       </c>
       <c r="G42">
-        <v>18.58</v>
+        <v>15.58</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>18.6</t>
         </is>
       </c>
       <c r="I42">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J42">
-        <v>118.34</v>
+        <v>103.34</v>
       </c>
     </row>
     <row r="43">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2243,18 +2243,18 @@
         </is>
       </c>
       <c r="G43">
-        <v>10.68</v>
+        <v>13.68</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="I43">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="J43">
-        <v>88.93000000000001</v>
+        <v>103.93</v>
       </c>
     </row>
     <row r="44">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2331,18 +2331,18 @@
         </is>
       </c>
       <c r="G45">
-        <v>15.87</v>
+        <v>18.87</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="I45">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="J45">
-        <v>94.88</v>
+        <v>109.88</v>
       </c>
     </row>
     <row r="46">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2375,18 +2375,18 @@
         </is>
       </c>
       <c r="G46">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="I46">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="J46">
-        <v>94.26000000000001</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MALE_orange</t>
+          <t>m_orange</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2463,18 +2463,18 @@
         </is>
       </c>
       <c r="G48">
-        <v>16.07</v>
+        <v>13.07</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>27.5</t>
         </is>
       </c>
       <c r="I48">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="J48">
-        <v>97.37</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="49">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2507,18 +2507,18 @@
         </is>
       </c>
       <c r="G49">
-        <v>17.28</v>
+        <v>14.28</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="I49">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="J49">
-        <v>112.75</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2551,18 +2551,18 @@
         </is>
       </c>
       <c r="G50">
-        <v>10.99</v>
+        <v>13.99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="I50">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="J50">
-        <v>97.09</v>
+        <v>112.09</v>
       </c>
     </row>
     <row r="51">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2595,18 +2595,18 @@
         </is>
       </c>
       <c r="G51">
-        <v>17.1</v>
+        <v>20.1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I51">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="J51">
-        <v>92.13</v>
+        <v>107.13</v>
       </c>
     </row>
     <row r="52">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2639,18 +2639,18 @@
         </is>
       </c>
       <c r="G52">
-        <v>13.7</v>
+        <v>10.7</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="I52">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="J52">
-        <v>119.82</v>
+        <v>104.82</v>
       </c>
     </row>
     <row r="53">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2683,18 +2683,18 @@
         </is>
       </c>
       <c r="G53">
-        <v>17.34</v>
+        <v>14.34</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="I53">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="J53">
-        <v>114.95</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="54">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2727,18 +2727,18 @@
         </is>
       </c>
       <c r="G54">
-        <v>18.12</v>
+        <v>15.12</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>18.1</t>
         </is>
       </c>
       <c r="I54">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="J54">
-        <v>120.11</v>
+        <v>105.11</v>
       </c>
     </row>
     <row r="55">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Female_green</t>
+          <t>f_green</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2815,18 +2815,18 @@
         </is>
       </c>
       <c r="G56">
-        <v>12.57</v>
+        <v>15.57</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I56">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="J56">
-        <v>76.75</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="57">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2859,18 +2859,18 @@
         </is>
       </c>
       <c r="G57">
-        <v>12.53</v>
+        <v>15.53</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="I57">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="J57">
-        <v>115.27</v>
+        <v>130.27</v>
       </c>
     </row>
     <row r="58">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2903,18 +2903,18 @@
         </is>
       </c>
       <c r="G58">
-        <v>21.54</v>
+        <v>24.54</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="I58">
-        <v>1011</v>
+        <v>1032</v>
       </c>
       <c r="J58">
-        <v>87.13</v>
+        <v>102.13</v>
       </c>
     </row>
     <row r="59">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2947,18 +2947,18 @@
         </is>
       </c>
       <c r="G59">
-        <v>14.36</v>
+        <v>11.36</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I59">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="J59">
-        <v>119.63</v>
+        <v>104.63</v>
       </c>
     </row>
     <row r="60">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2991,18 +2991,18 @@
         </is>
       </c>
       <c r="G60">
-        <v>17.39</v>
+        <v>20.39</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="I60">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="J60">
-        <v>120.4</v>
+        <v>135.4</v>
       </c>
     </row>
     <row r="61">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3035,18 +3035,18 @@
         </is>
       </c>
       <c r="G61">
-        <v>10.05</v>
+        <v>13.05</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="I61">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="J61">
-        <v>101.61</v>
+        <v>116.61</v>
       </c>
     </row>
     <row r="62">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3079,18 +3079,18 @@
         </is>
       </c>
       <c r="G62">
-        <v>17.82</v>
+        <v>14.82</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>23.7</t>
         </is>
       </c>
       <c r="I62">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="J62">
-        <v>140.61</v>
+        <v>125.61</v>
       </c>
     </row>
     <row r="63">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3123,18 +3123,18 @@
         </is>
       </c>
       <c r="G63">
-        <v>12.18</v>
+        <v>9.18</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="I63">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="J63">
-        <v>71.39</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="64">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>male_Green</t>
+          <t>female_Green</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3167,18 +3167,18 @@
         </is>
       </c>
       <c r="G64">
-        <v>11.94</v>
+        <v>8.94</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>28.9</t>
         </is>
       </c>
       <c r="I64">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="J64">
-        <v>109.66</v>
+        <v>94.66</v>
       </c>
     </row>
     <row r="65">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3211,18 +3211,18 @@
         </is>
       </c>
       <c r="G65">
-        <v>12.98</v>
+        <v>15.98</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>33.4</t>
         </is>
       </c>
       <c r="I65">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="J65">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3255,18 +3255,18 @@
         </is>
       </c>
       <c r="G66">
-        <v>14.12</v>
+        <v>17.12</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>29.1</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="I66">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="J66">
-        <v>110.8</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="67">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3299,18 +3299,18 @@
         </is>
       </c>
       <c r="G67">
-        <v>12.29</v>
+        <v>15.29</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="I67">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="J67">
-        <v>91.15000000000001</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="68">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3343,18 +3343,18 @@
         </is>
       </c>
       <c r="G68">
-        <v>17.09</v>
+        <v>20.09</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="I68">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="J68">
-        <v>112.21</v>
+        <v>127.21</v>
       </c>
     </row>
     <row r="69">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>male_red</t>
+          <t>female_red</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3431,18 +3431,18 @@
         </is>
       </c>
       <c r="G70">
-        <v>18.68</v>
+        <v>15.68</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="I70">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="J70">
-        <v>113.74</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Female_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3519,18 +3519,18 @@
         </is>
       </c>
       <c r="G72">
-        <v>11.82</v>
+        <v>14.82</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="I72">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="J72">
-        <v>97.75</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="73">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>male_Purple</t>
+          <t>female_Purple</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3563,18 +3563,18 @@
         </is>
       </c>
       <c r="G73">
-        <v>21.29</v>
+        <v>18.29</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="I73">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="J73">
-        <v>94.79000000000001</v>
+        <v>79.79000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>m_orange</t>
+          <t>f_orange</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3607,18 +3607,18 @@
         </is>
       </c>
       <c r="G74">
-        <v>17.19</v>
+        <v>14.19</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="I74">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="J74">
-        <v>116.82</v>
+        <v>101.82</v>
       </c>
     </row>
     <row r="75">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3651,18 +3651,18 @@
         </is>
       </c>
       <c r="G75">
-        <v>16.27</v>
+        <v>19.27</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="I75">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="J75">
-        <v>106.32</v>
+        <v>121.32</v>
       </c>
     </row>
     <row r="76">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G76">
-        <v>13.79</v>
+        <v>16.79</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="I76">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="J76">
-        <v>94.26000000000001</v>
+        <v>109.26</v>
       </c>
     </row>
     <row r="77">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3739,18 +3739,18 @@
         </is>
       </c>
       <c r="G77">
-        <v>13.09</v>
+        <v>16.09</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="I77">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="J77">
-        <v>99.37</v>
+        <v>114.37</v>
       </c>
     </row>
     <row r="78">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>MALE_purple</t>
+          <t>m_purple</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3827,18 +3827,18 @@
         </is>
       </c>
       <c r="G79">
-        <v>16.64</v>
+        <v>19.64</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="I79">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="J79">
-        <v>106.97</v>
+        <v>121.97</v>
       </c>
     </row>
     <row r="80">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3871,18 +3871,18 @@
         </is>
       </c>
       <c r="G80">
-        <v>23.22</v>
+        <v>20.22</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>22.4</t>
         </is>
       </c>
       <c r="I80">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="J80">
-        <v>111.63</v>
+        <v>96.63</v>
       </c>
     </row>
     <row r="81">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3915,18 +3915,18 @@
         </is>
       </c>
       <c r="G81">
-        <v>24.7</v>
+        <v>21.7</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="I81">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="J81">
-        <v>130.39</v>
+        <v>115.39</v>
       </c>
     </row>
     <row r="82">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3959,18 +3959,18 @@
         </is>
       </c>
       <c r="G82">
-        <v>12.89</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="I82">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="J82">
-        <v>82.63</v>
+        <v>67.63</v>
       </c>
     </row>
     <row r="83">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4003,18 +4003,18 @@
         </is>
       </c>
       <c r="G83">
-        <v>14.44</v>
+        <v>17.44</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>28.5</t>
+          <t>30.5</t>
         </is>
       </c>
       <c r="I83">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="J83">
-        <v>61.79</v>
+        <v>76.79000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4047,18 +4047,18 @@
         </is>
       </c>
       <c r="G84">
-        <v>20.42</v>
+        <v>17.42</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>28.2</t>
         </is>
       </c>
       <c r="I84">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="J84">
-        <v>110.42</v>
+        <v>95.42</v>
       </c>
     </row>
     <row r="85">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>m_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4091,18 +4091,18 @@
         </is>
       </c>
       <c r="G85">
-        <v>17.05</v>
+        <v>14.05</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="I85">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J85">
-        <v>117.62</v>
+        <v>102.62</v>
       </c>
     </row>
     <row r="86">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4135,18 +4135,18 @@
         </is>
       </c>
       <c r="G86">
-        <v>13.32</v>
+        <v>16.32</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>24.1</t>
         </is>
       </c>
       <c r="I86">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="J86">
-        <v>113.05</v>
+        <v>128.05</v>
       </c>
     </row>
     <row r="87">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4179,18 +4179,18 @@
         </is>
       </c>
       <c r="G87">
-        <v>11.49</v>
+        <v>14.49</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="I87">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="J87">
-        <v>94.75</v>
+        <v>109.75</v>
       </c>
     </row>
     <row r="88">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>male_Green</t>
+          <t>female_Green</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4223,18 +4223,18 @@
         </is>
       </c>
       <c r="G88">
-        <v>17.79</v>
+        <v>14.79</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="I88">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="J88">
-        <v>129.64</v>
+        <v>114.64</v>
       </c>
     </row>
     <row r="89">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4267,18 +4267,18 @@
         </is>
       </c>
       <c r="G89">
-        <v>21.05</v>
+        <v>18.05</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="I89">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="J89">
-        <v>100.24</v>
+        <v>85.23999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4311,18 +4311,18 @@
         </is>
       </c>
       <c r="G90">
-        <v>17.59</v>
+        <v>14.59</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="I90">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="J90">
-        <v>99.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Female_green</t>
+          <t>f_green</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>male_Orange</t>
+          <t>female_Orange</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4399,18 +4399,18 @@
         </is>
       </c>
       <c r="G92">
-        <v>15.59</v>
+        <v>12.59</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="I92">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="J92">
-        <v>118.78</v>
+        <v>103.78</v>
       </c>
     </row>
     <row r="93">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4443,18 +4443,18 @@
         </is>
       </c>
       <c r="G93">
-        <v>19.09</v>
+        <v>16.09</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>27.6</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="I93">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="J93">
-        <v>124.11</v>
+        <v>109.11</v>
       </c>
     </row>
     <row r="94">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4487,18 +4487,18 @@
         </is>
       </c>
       <c r="G94">
-        <v>12.54</v>
+        <v>15.54</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>27.1</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="I94">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="J94">
-        <v>93.90000000000001</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="95">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4531,18 +4531,18 @@
         </is>
       </c>
       <c r="G95">
-        <v>13.46</v>
+        <v>16.46</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="I95">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="J95">
-        <v>92.34999999999999</v>
+        <v>107.35</v>
       </c>
     </row>
     <row r="96">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>m_red</t>
+          <t>f_red</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4575,18 +4575,18 @@
         </is>
       </c>
       <c r="G96">
-        <v>16.34</v>
+        <v>13.34</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>28.2</t>
         </is>
       </c>
       <c r="I96">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="J96">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>female_Orange</t>
+          <t>male_Orange</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4619,18 +4619,18 @@
         </is>
       </c>
       <c r="G97">
-        <v>21.38</v>
+        <v>24.38</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="I97">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="J97">
-        <v>108.24</v>
+        <v>123.24</v>
       </c>
     </row>
     <row r="98">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4663,18 +4663,18 @@
         </is>
       </c>
       <c r="G98">
-        <v>14.96</v>
+        <v>11.96</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I98">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="J98">
-        <v>122.43</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="99">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>m_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4707,18 +4707,18 @@
         </is>
       </c>
       <c r="G99">
-        <v>16.23</v>
+        <v>13.23</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="I99">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="J99">
-        <v>98.76000000000001</v>
+        <v>83.76000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4751,18 +4751,18 @@
         </is>
       </c>
       <c r="G100">
-        <v>11.71</v>
+        <v>14.71</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="I100">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="J100">
-        <v>96.64</v>
+        <v>111.64</v>
       </c>
     </row>
     <row r="101">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4795,18 +4795,18 @@
         </is>
       </c>
       <c r="G101">
-        <v>13.81</v>
+        <v>16.81</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>23.7</t>
         </is>
       </c>
       <c r="I101">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="J101">
-        <v>80.84999999999999</v>
+        <v>95.84999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>female_Green</t>
+          <t>male_Green</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4839,18 +4839,18 @@
         </is>
       </c>
       <c r="G102">
-        <v>18.47</v>
+        <v>21.47</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="I102">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="J102">
-        <v>112.82</v>
+        <v>127.82</v>
       </c>
     </row>
     <row r="103">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>m_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="G103">
-        <v>21.98</v>
+        <v>18.98</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="I103">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="J103">
-        <v>116.61</v>
+        <v>101.61</v>
       </c>
     </row>
     <row r="104">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4971,18 +4971,18 @@
         </is>
       </c>
       <c r="G105">
-        <v>13.37</v>
+        <v>16.37</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="I105">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="J105">
-        <v>107.81</v>
+        <v>122.81</v>
       </c>
     </row>
     <row r="106">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5015,18 +5015,18 @@
         </is>
       </c>
       <c r="G106">
-        <v>15.88</v>
+        <v>12.88</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>27.9</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="I106">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="J106">
-        <v>92.98</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="107">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5059,18 +5059,18 @@
         </is>
       </c>
       <c r="G107">
-        <v>18.06</v>
+        <v>21.06</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="I107">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="J107">
-        <v>79.62</v>
+        <v>94.62</v>
       </c>
     </row>
     <row r="108">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>male_orange</t>
+          <t>female_orange</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5103,18 +5103,18 @@
         </is>
       </c>
       <c r="G108">
-        <v>14.9</v>
+        <v>11.9</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>27.9</t>
         </is>
       </c>
       <c r="I108">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="J108">
-        <v>106.34</v>
+        <v>91.34</v>
       </c>
     </row>
     <row r="109">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Female_orange</t>
+          <t>m_orange</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5147,18 +5147,18 @@
         </is>
       </c>
       <c r="G109">
-        <v>12.09</v>
+        <v>15.09</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>25.1</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="I109">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="J109">
-        <v>73.18000000000001</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>F_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5191,18 +5191,18 @@
         </is>
       </c>
       <c r="G110">
-        <v>13.78</v>
+        <v>16.78</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="I110">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="J110">
-        <v>78.20999999999999</v>
+        <v>93.20999999999999</v>
       </c>
     </row>
     <row r="111">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5235,18 +5235,18 @@
         </is>
       </c>
       <c r="G111">
-        <v>13.74</v>
+        <v>16.74</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="I111">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="J111">
-        <v>97.12</v>
+        <v>112.12</v>
       </c>
     </row>
     <row r="112">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>F_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="G112">
-        <v>19.65</v>
+        <v>22.65</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5287,10 +5287,10 @@
         </is>
       </c>
       <c r="I112">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="J112">
-        <v>101.86</v>
+        <v>116.86</v>
       </c>
     </row>
     <row r="113">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5323,18 +5323,18 @@
         </is>
       </c>
       <c r="G113">
-        <v>9.76</v>
+        <v>12.76</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="I113">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="J113">
-        <v>69.81</v>
+        <v>84.81</v>
       </c>
     </row>
     <row r="114">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>female_Orange</t>
+          <t>male_Orange</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5367,18 +5367,18 @@
         </is>
       </c>
       <c r="G114">
-        <v>14.53</v>
+        <v>17.53</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="I114">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="J114">
-        <v>71.78</v>
+        <v>86.78</v>
       </c>
     </row>
     <row r="115">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5411,18 +5411,18 @@
         </is>
       </c>
       <c r="G115">
-        <v>17.6</v>
+        <v>14.6</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>20.5</t>
         </is>
       </c>
       <c r="I115">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="J115">
-        <v>112.4</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5455,18 +5455,18 @@
         </is>
       </c>
       <c r="G116">
-        <v>15.31</v>
+        <v>18.31</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="I116">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="J116">
-        <v>92.69</v>
+        <v>107.69</v>
       </c>
     </row>
     <row r="117">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5499,18 +5499,18 @@
         </is>
       </c>
       <c r="G117">
-        <v>16.26</v>
+        <v>19.26</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>29.3</t>
         </is>
       </c>
       <c r="I117">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="J117">
-        <v>97.59</v>
+        <v>112.59</v>
       </c>
     </row>
     <row r="118">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>female_Green</t>
+          <t>male_Green</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5543,18 +5543,18 @@
         </is>
       </c>
       <c r="G118">
-        <v>16.68</v>
+        <v>19.68</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="I118">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="J118">
-        <v>103.47</v>
+        <v>118.47</v>
       </c>
     </row>
     <row r="119">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>F_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5587,18 +5587,18 @@
         </is>
       </c>
       <c r="G119">
-        <v>16.08</v>
+        <v>19.08</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="I119">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="J119">
-        <v>113.2</v>
+        <v>128.2</v>
       </c>
     </row>
     <row r="120">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5631,18 +5631,18 @@
         </is>
       </c>
       <c r="G120">
-        <v>14.06</v>
+        <v>11.06</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>26.8</t>
         </is>
       </c>
       <c r="I120">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="J120">
-        <v>91.03</v>
+        <v>76.03</v>
       </c>
     </row>
     <row r="121">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5675,18 +5675,18 @@
         </is>
       </c>
       <c r="G121">
-        <v>13.48</v>
+        <v>16.48</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>28.2</t>
         </is>
       </c>
       <c r="I121">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="J121">
-        <v>82.58</v>
+        <v>97.58</v>
       </c>
     </row>
     <row r="122">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>male_Purple</t>
+          <t>female_Purple</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5719,18 +5719,18 @@
         </is>
       </c>
       <c r="G122">
-        <v>23.72</v>
+        <v>20.72</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="I122">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="J122">
-        <v>119.66</v>
+        <v>104.66</v>
       </c>
     </row>
     <row r="123">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5763,18 +5763,18 @@
         </is>
       </c>
       <c r="G123">
-        <v>16.97</v>
+        <v>13.97</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I123">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="J123">
-        <v>105.39</v>
+        <v>90.39</v>
       </c>
     </row>
     <row r="124">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5807,18 +5807,18 @@
         </is>
       </c>
       <c r="G124">
-        <v>14.94</v>
+        <v>17.94</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>27.1</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="I124">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="J124">
-        <v>105.14</v>
+        <v>120.14</v>
       </c>
     </row>
     <row r="125">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>female_Green</t>
+          <t>male_Green</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5851,18 +5851,18 @@
         </is>
       </c>
       <c r="G125">
-        <v>12.65</v>
+        <v>15.65</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="I125">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="J125">
-        <v>100.89</v>
+        <v>115.89</v>
       </c>
     </row>
     <row r="126">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>m_Red</t>
+          <t>f_Red</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5895,18 +5895,18 @@
         </is>
       </c>
       <c r="G126">
-        <v>17.86</v>
+        <v>14.86</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="I126">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="J126">
-        <v>86.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5939,18 +5939,18 @@
         </is>
       </c>
       <c r="G127">
-        <v>13.97</v>
+        <v>10.97</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="I127">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="J127">
-        <v>91.52</v>
+        <v>76.52</v>
       </c>
     </row>
     <row r="128">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5983,18 +5983,18 @@
         </is>
       </c>
       <c r="G128">
-        <v>22.04</v>
+        <v>19.04</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I128">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="J128">
-        <v>115.23</v>
+        <v>100.23</v>
       </c>
     </row>
     <row r="129">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6027,18 +6027,18 @@
         </is>
       </c>
       <c r="G129">
-        <v>22.27</v>
+        <v>19.27</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>20.8</t>
         </is>
       </c>
       <c r="I129">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J129">
-        <v>101.69</v>
+        <v>86.69</v>
       </c>
     </row>
     <row r="130">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Female_green</t>
+          <t>f_green</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>male_red</t>
+          <t>female_red</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6115,18 +6115,18 @@
         </is>
       </c>
       <c r="G131">
-        <v>14.63</v>
+        <v>11.63</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="I131">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="J131">
-        <v>113.81</v>
+        <v>98.81</v>
       </c>
     </row>
     <row r="132">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>female_Green</t>
+          <t>male_Green</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6203,18 +6203,18 @@
         </is>
       </c>
       <c r="G133">
-        <v>11.86</v>
+        <v>14.86</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I133">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="J133">
-        <v>99.59999999999999</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="134">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>female_orange</t>
+          <t>male_orange</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6247,18 +6247,18 @@
         </is>
       </c>
       <c r="G134">
-        <v>17.83</v>
+        <v>20.83</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I134">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="J134">
-        <v>108.11</v>
+        <v>123.11</v>
       </c>
     </row>
     <row r="135">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6291,18 +6291,18 @@
         </is>
       </c>
       <c r="G135">
-        <v>11.66</v>
+        <v>14.66</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="I135">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="J135">
-        <v>99.88</v>
+        <v>114.88</v>
       </c>
     </row>
     <row r="136">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>male_Green</t>
+          <t>female_Green</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6335,18 +6335,18 @@
         </is>
       </c>
       <c r="G136">
-        <v>19.12</v>
+        <v>16.12</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>20.3</t>
         </is>
       </c>
       <c r="I136">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="J136">
-        <v>88.76000000000001</v>
+        <v>73.76000000000001</v>
       </c>
     </row>
     <row r="137">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="G137">
-        <v>10.68</v>
+        <v>13.68</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -6387,10 +6387,10 @@
         </is>
       </c>
       <c r="I137">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="J137">
-        <v>102.8</v>
+        <v>117.8</v>
       </c>
     </row>
     <row r="138">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6423,18 +6423,18 @@
         </is>
       </c>
       <c r="G138">
-        <v>12.16</v>
+        <v>15.16</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="I138">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="J138">
-        <v>96.29000000000001</v>
+        <v>111.29</v>
       </c>
     </row>
     <row r="139">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6467,18 +6467,18 @@
         </is>
       </c>
       <c r="G139">
-        <v>15.56</v>
+        <v>18.56</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>26.7</t>
+          <t>28.7</t>
         </is>
       </c>
       <c r="I139">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="J139">
-        <v>113.17</v>
+        <v>128.17</v>
       </c>
     </row>
     <row r="140">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6511,18 +6511,18 @@
         </is>
       </c>
       <c r="G140">
-        <v>14.6</v>
+        <v>17.6</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="I140">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="J140">
-        <v>104.82</v>
+        <v>119.82</v>
       </c>
     </row>
     <row r="141">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6555,18 +6555,18 @@
         </is>
       </c>
       <c r="G141">
-        <v>12.23</v>
+        <v>9.23</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I141">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="J141">
-        <v>112.52</v>
+        <v>97.52</v>
       </c>
     </row>
     <row r="142">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="G142">
-        <v>11.79</v>
+        <v>14.79</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="I142">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="J142">
-        <v>84.94</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="143">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6643,18 +6643,18 @@
         </is>
       </c>
       <c r="G143">
-        <v>15.97</v>
+        <v>12.97</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="I143">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="J143">
-        <v>103.19</v>
+        <v>88.19</v>
       </c>
     </row>
     <row r="144">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6687,18 +6687,18 @@
         </is>
       </c>
       <c r="G144">
-        <v>14.96</v>
+        <v>11.96</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I144">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="J144">
-        <v>80.98</v>
+        <v>65.98</v>
       </c>
     </row>
     <row r="145">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6731,18 +6731,18 @@
         </is>
       </c>
       <c r="G145">
-        <v>18.54</v>
+        <v>15.54</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I145">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="J145">
-        <v>97.7</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="146">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>male_Orange</t>
+          <t>female_Orange</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6775,18 +6775,18 @@
         </is>
       </c>
       <c r="G146">
-        <v>15.61</v>
+        <v>12.61</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="I146">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="J146">
-        <v>108.76</v>
+        <v>93.76000000000001</v>
       </c>
     </row>
     <row r="147">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6863,18 +6863,18 @@
         </is>
       </c>
       <c r="G148">
-        <v>15.78</v>
+        <v>18.78</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>27.1</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="I148">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="J148">
-        <v>108.69</v>
+        <v>123.69</v>
       </c>
     </row>
     <row r="149">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6907,18 +6907,18 @@
         </is>
       </c>
       <c r="G149">
-        <v>11.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>23.4</t>
         </is>
       </c>
       <c r="I149">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="J149">
-        <v>98.11</v>
+        <v>83.11</v>
       </c>
     </row>
     <row r="150">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>male_Green</t>
+          <t>female_Green</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6995,18 +6995,18 @@
         </is>
       </c>
       <c r="G151">
-        <v>18.56</v>
+        <v>15.56</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="I151">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="J151">
-        <v>112.39</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="152">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>female_red</t>
+          <t>male_red</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7039,18 +7039,18 @@
         </is>
       </c>
       <c r="G152">
-        <v>15.76</v>
+        <v>18.76</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="I152">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="J152">
-        <v>103.56</v>
+        <v>118.56</v>
       </c>
     </row>
     <row r="153">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>female_Orange</t>
+          <t>male_Orange</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7083,18 +7083,18 @@
         </is>
       </c>
       <c r="G153">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="I153">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="J153">
-        <v>103.2</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="154">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>female_orange</t>
+          <t>male_orange</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7127,18 +7127,18 @@
         </is>
       </c>
       <c r="G154">
-        <v>17.82</v>
+        <v>20.82</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>33.6</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="I154">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="J154">
-        <v>105.06</v>
+        <v>120.06</v>
       </c>
     </row>
     <row r="155">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7171,18 +7171,18 @@
         </is>
       </c>
       <c r="G155">
-        <v>16.94</v>
+        <v>13.94</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I155">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="J155">
-        <v>71.95999999999999</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="156">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7215,18 +7215,18 @@
         </is>
       </c>
       <c r="G156">
-        <v>14.46</v>
+        <v>17.46</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I156">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="J156">
-        <v>97.31999999999999</v>
+        <v>112.32</v>
       </c>
     </row>
     <row r="157">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7259,18 +7259,18 @@
         </is>
       </c>
       <c r="G157">
-        <v>23.5</v>
+        <v>20.5</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="I157">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="J157">
-        <v>120.65</v>
+        <v>105.65</v>
       </c>
     </row>
     <row r="158">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7303,18 +7303,18 @@
         </is>
       </c>
       <c r="G158">
-        <v>19.24</v>
+        <v>16.24</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>27.9</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="I158">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="J158">
-        <v>129.25</v>
+        <v>114.25</v>
       </c>
     </row>
     <row r="159">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7347,18 +7347,18 @@
         </is>
       </c>
       <c r="G159">
-        <v>18.94</v>
+        <v>15.94</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I159">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="J159">
-        <v>117.6</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="160">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>male_Purple</t>
+          <t>female_Purple</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7391,18 +7391,18 @@
         </is>
       </c>
       <c r="G160">
-        <v>18.7</v>
+        <v>15.7</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I160">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="J160">
-        <v>64.95</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="161">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>F_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7435,18 +7435,18 @@
         </is>
       </c>
       <c r="G161">
-        <v>11.19</v>
+        <v>14.19</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="I161">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="J161">
-        <v>89.38</v>
+        <v>104.38</v>
       </c>
     </row>
     <row r="162">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7479,18 +7479,18 @@
         </is>
       </c>
       <c r="G162">
-        <v>17.52</v>
+        <v>20.52</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="I162">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="J162">
-        <v>114.07</v>
+        <v>129.07</v>
       </c>
     </row>
     <row r="163">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Female_green</t>
+          <t>f_green</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7567,18 +7567,18 @@
         </is>
       </c>
       <c r="G164">
-        <v>19.73</v>
+        <v>16.73</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="I164">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="J164">
-        <v>123.33</v>
+        <v>108.33</v>
       </c>
     </row>
     <row r="165">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>F_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7611,18 +7611,18 @@
         </is>
       </c>
       <c r="G165">
-        <v>12.11</v>
+        <v>15.11</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="I165">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="J165">
-        <v>78.06999999999999</v>
+        <v>93.06999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7699,18 +7699,18 @@
         </is>
       </c>
       <c r="G167">
-        <v>14.59</v>
+        <v>17.59</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="I167">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="J167">
-        <v>106.02</v>
+        <v>121.02</v>
       </c>
     </row>
     <row r="168">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7743,18 +7743,18 @@
         </is>
       </c>
       <c r="G168">
-        <v>14.77</v>
+        <v>17.77</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="I168">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="J168">
-        <v>73.53</v>
+        <v>88.53</v>
       </c>
     </row>
     <row r="169">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>m_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7787,18 +7787,18 @@
         </is>
       </c>
       <c r="G169">
-        <v>14.38</v>
+        <v>11.38</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="I169">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J169">
-        <v>85.81999999999999</v>
+        <v>70.81999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7831,18 +7831,18 @@
         </is>
       </c>
       <c r="G170">
-        <v>15.91</v>
+        <v>12.91</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="I170">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="J170">
-        <v>112.01</v>
+        <v>97.01000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>male_Green</t>
+          <t>female_Green</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7875,18 +7875,18 @@
         </is>
       </c>
       <c r="G171">
-        <v>10.46</v>
+        <v>7.46</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="I171">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="J171">
-        <v>78.08</v>
+        <v>63.08</v>
       </c>
     </row>
     <row r="172">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>female_green</t>
+          <t>male_green</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7919,18 +7919,18 @@
         </is>
       </c>
       <c r="G172">
-        <v>11.87</v>
+        <v>14.87</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="I172">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="J172">
-        <v>113.41</v>
+        <v>128.41</v>
       </c>
     </row>
     <row r="173">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Female_purple</t>
+          <t>f_purple</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8007,18 +8007,18 @@
         </is>
       </c>
       <c r="G174">
-        <v>14.31</v>
+        <v>11.31</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>24.7</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="I174">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="J174">
-        <v>84.84999999999999</v>
+        <v>69.84999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8051,18 +8051,18 @@
         </is>
       </c>
       <c r="G175">
-        <v>17.09</v>
+        <v>14.09</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="I175">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="J175">
-        <v>99.39</v>
+        <v>84.39</v>
       </c>
     </row>
     <row r="176">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="G176">
-        <v>13.93</v>
+        <v>10.93</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="I176">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="J176">
-        <v>120.07</v>
+        <v>105.07</v>
       </c>
     </row>
     <row r="177">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>male_orange</t>
+          <t>female_orange</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8139,18 +8139,18 @@
         </is>
       </c>
       <c r="G177">
-        <v>12.67</v>
+        <v>9.67</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="I177">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="J177">
-        <v>78.16</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="178">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8183,18 +8183,18 @@
         </is>
       </c>
       <c r="G178">
-        <v>20.03</v>
+        <v>17.03</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>27.9</t>
         </is>
       </c>
       <c r="I178">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="J178">
-        <v>122.59</v>
+        <v>107.59</v>
       </c>
     </row>
     <row r="179">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8227,18 +8227,18 @@
         </is>
       </c>
       <c r="G179">
-        <v>14.18</v>
+        <v>11.18</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="I179">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="J179">
-        <v>121.61</v>
+        <v>106.61</v>
       </c>
     </row>
     <row r="180">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>male_Orange</t>
+          <t>female_Orange</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8271,18 +8271,18 @@
         </is>
       </c>
       <c r="G180">
-        <v>15.43</v>
+        <v>12.43</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="I180">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="J180">
-        <v>127.22</v>
+        <v>112.22</v>
       </c>
     </row>
     <row r="181">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="G181">
-        <v>15.72</v>
+        <v>18.72</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -8323,10 +8323,10 @@
         </is>
       </c>
       <c r="I181">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="J181">
-        <v>106.8</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="182">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>F_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8359,18 +8359,18 @@
         </is>
       </c>
       <c r="G182">
-        <v>14.12</v>
+        <v>17.12</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="I182">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="J182">
-        <v>104.58</v>
+        <v>119.58</v>
       </c>
     </row>
     <row r="183">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8403,18 +8403,18 @@
         </is>
       </c>
       <c r="G183">
-        <v>11.72</v>
+        <v>14.72</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="I183">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="J183">
-        <v>98.5</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="184">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8447,18 +8447,18 @@
         </is>
       </c>
       <c r="G184">
-        <v>10.66</v>
+        <v>7.66</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="I184">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="J184">
-        <v>107.71</v>
+        <v>92.70999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>female_Orange</t>
+          <t>male_Orange</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8491,18 +8491,18 @@
         </is>
       </c>
       <c r="G185">
-        <v>14.69</v>
+        <v>17.69</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="I185">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="J185">
-        <v>111.18</v>
+        <v>126.18</v>
       </c>
     </row>
     <row r="186">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>m_green</t>
+          <t>f_green</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8535,18 +8535,18 @@
         </is>
       </c>
       <c r="G186">
-        <v>22.18</v>
+        <v>19.18</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="I186">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="J186">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8579,18 +8579,18 @@
         </is>
       </c>
       <c r="G187">
-        <v>22.64</v>
+        <v>19.64</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I187">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="J187">
-        <v>123.08</v>
+        <v>108.08</v>
       </c>
     </row>
     <row r="188">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>male_Purple</t>
+          <t>female_Purple</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8623,18 +8623,18 @@
         </is>
       </c>
       <c r="G188">
-        <v>15.01</v>
+        <v>12.01</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="I188">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="J188">
-        <v>96.26000000000001</v>
+        <v>81.26000000000001</v>
       </c>
     </row>
     <row r="189">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>MALE_Purple</t>
+          <t>m_Purple</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>female_Green</t>
+          <t>male_Green</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8711,18 +8711,18 @@
         </is>
       </c>
       <c r="G190">
-        <v>12.04</v>
+        <v>15.04</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="I190">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="J190">
-        <v>95.36</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="191">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8755,18 +8755,18 @@
         </is>
       </c>
       <c r="G191">
-        <v>10.1</v>
+        <v>13.1</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="I191">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="J191">
-        <v>107.47</v>
+        <v>122.47</v>
       </c>
     </row>
     <row r="192">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>male_green</t>
+          <t>female_green</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8799,18 +8799,18 @@
         </is>
       </c>
       <c r="G192">
-        <v>16.15</v>
+        <v>13.15</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>29.7</t>
         </is>
       </c>
       <c r="I192">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="J192">
-        <v>87.45999999999999</v>
+        <v>72.45999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>female_Purple</t>
+          <t>male_Purple</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8843,18 +8843,18 @@
         </is>
       </c>
       <c r="G193">
-        <v>15.76</v>
+        <v>18.76</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>29.7</t>
         </is>
       </c>
       <c r="I193">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="J193">
-        <v>120.14</v>
+        <v>135.14</v>
       </c>
     </row>
     <row r="194">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>male_purple</t>
+          <t>female_purple</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8887,18 +8887,18 @@
         </is>
       </c>
       <c r="G194">
-        <v>15.89</v>
+        <v>12.89</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I194">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="J194">
-        <v>90.7</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="195">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Female_orange</t>
+          <t>f_orange</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>male_Green</t>
+          <t>female_Green</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -9019,18 +9019,18 @@
         </is>
       </c>
       <c r="G197">
-        <v>10.83</v>
+        <v>7.83</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="I197">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="J197">
-        <v>92.45999999999999</v>
+        <v>77.45999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>male_Purple</t>
+          <t>female_Purple</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9063,18 +9063,18 @@
         </is>
       </c>
       <c r="G198">
-        <v>16.76</v>
+        <v>13.76</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="I198">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="J198">
-        <v>117.92</v>
+        <v>102.92</v>
       </c>
     </row>
     <row r="199">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>male_red</t>
+          <t>female_red</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9107,18 +9107,18 @@
         </is>
       </c>
       <c r="G199">
-        <v>15.85</v>
+        <v>12.85</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="I199">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="J199">
-        <v>76.87</v>
+        <v>61.87</v>
       </c>
     </row>
     <row r="200">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9151,18 +9151,18 @@
         </is>
       </c>
       <c r="G200">
-        <v>18.85</v>
+        <v>21.85</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="I200">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="J200">
-        <v>106.51</v>
+        <v>121.51</v>
       </c>
     </row>
     <row r="201">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>female_purple</t>
+          <t>male_purple</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9195,18 +9195,18 @@
         </is>
       </c>
       <c r="G201">
-        <v>10.59</v>
+        <v>13.59</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I201">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="J201">
-        <v>90.59</v>
+        <v>105.59</v>
       </c>
     </row>
   </sheetData>

--- a/aliendata_20180331.xlsx
+++ b/aliendata_20180331.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,39 +416,37 @@
         </is>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Opal</t>
+          <t>Kylen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+          <t>m_orange</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>34.01</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>very spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G2">
-        <v>22.34</v>
+        <v>19.31</v>
       </c>
       <c r="H2">
-        <v>-999</v>
+        <v>33.9</v>
       </c>
       <c r="I2">
-        <v>642</v>
+        <v>708</v>
       </c>
       <c r="J2">
-        <v>100.32</v>
+        <v>141.83</v>
       </c>
     </row>
     <row r="3">
@@ -458,22 +456,20 @@
         </is>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Giuliana</t>
+          <t>Emaan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>m_green</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>25.43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -481,16 +477,16 @@
         </is>
       </c>
       <c r="G3">
-        <v>16.26</v>
+        <v>18.14</v>
       </c>
       <c r="H3">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="I3">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="J3">
-        <v>91.12</v>
+        <v>100.49</v>
       </c>
     </row>
     <row r="4">
@@ -500,39 +496,37 @@
         </is>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Payton</t>
+          <t>Ambrosio</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>male_Purple</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>15.43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G4">
-        <v>13.61</v>
+        <v>13.15</v>
       </c>
       <c r="H4">
-        <v>29.5</v>
+        <v>22.8</v>
       </c>
       <c r="I4">
-        <v>521</v>
+        <v>462</v>
       </c>
       <c r="J4">
-        <v>113.36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -542,22 +536,20 @@
         </is>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Robbie</t>
+          <t>Lian</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>male_orange</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>30.25</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -565,16 +557,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>21.69</v>
+        <v>18.87</v>
       </c>
       <c r="H5">
-        <v>30.2</v>
+        <v>23.4</v>
       </c>
       <c r="I5">
-        <v>621</v>
+        <v>575</v>
       </c>
       <c r="J5">
-        <v>112.18</v>
+        <v>109.88</v>
       </c>
     </row>
     <row r="6">
@@ -584,39 +576,37 @@
         </is>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Prachi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>male_Purple</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+          <t>female_Purple</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>19.79</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G6">
-        <v>18.51</v>
+        <v>14.34</v>
       </c>
       <c r="H6">
-        <v>29.1</v>
+        <v>21.5</v>
       </c>
       <c r="I6">
-        <v>634</v>
+        <v>469</v>
       </c>
       <c r="J6">
-        <v>127.62</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="7">
@@ -626,39 +616,37 @@
         </is>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desmarie</t>
+          <t>Meryl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>f_orange</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>14.24</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G7">
-        <v>13.75</v>
+        <v>11.42</v>
       </c>
       <c r="H7">
-        <v>30.1</v>
+        <v>19.9</v>
       </c>
       <c r="I7">
-        <v>506</v>
+        <v>417</v>
       </c>
       <c r="J7">
-        <v>80.70999999999999</v>
+        <v>103.85</v>
       </c>
     </row>
     <row r="8">
@@ -668,39 +656,37 @@
         </is>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malon</t>
+          <t>Leemon</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>11.67</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G8">
-        <v>12.01</v>
+        <v>13.74</v>
       </c>
       <c r="H8">
-        <v>26.4</v>
+        <v>-999</v>
       </c>
       <c r="I8">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="J8">
-        <v>93.23999999999999</v>
+        <v>79.01000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -710,22 +696,20 @@
         </is>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yoselyn</t>
+          <t>Jeb</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>m_Purple</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>11.2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -733,16 +717,16 @@
         </is>
       </c>
       <c r="G9">
-        <v>19.59</v>
+        <v>13.68</v>
       </c>
       <c r="H9">
-        <v>35.7</v>
+        <v>37.3</v>
       </c>
       <c r="I9">
-        <v>792</v>
+        <v>592</v>
       </c>
       <c r="J9">
-        <v>104.98</v>
+        <v>103.93</v>
       </c>
     </row>
     <row r="10">
@@ -752,22 +736,20 @@
         </is>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rosana</t>
+          <t>Maribel</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>10.29</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -775,16 +757,16 @@
         </is>
       </c>
       <c r="G10">
-        <v>8.44</v>
+        <v>11.4</v>
       </c>
       <c r="H10">
-        <v>16.7</v>
+        <v>31.1</v>
       </c>
       <c r="I10">
-        <v>321</v>
+        <v>513</v>
       </c>
       <c r="J10">
-        <v>87.43000000000001</v>
+        <v>97.11</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +776,20 @@
         </is>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zakia</t>
+          <t>Phoenyx</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>15.74</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -817,16 +797,16 @@
         </is>
       </c>
       <c r="G11">
-        <v>20.2</v>
+        <v>19.45</v>
       </c>
       <c r="H11">
-        <v>25.1</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="J11">
-        <v>104.57</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +816,20 @@
         </is>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bernda</t>
+          <t>Yani</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>male_Purple</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>male_red</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>18.6</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -859,16 +837,16 @@
         </is>
       </c>
       <c r="G12">
-        <v>15.92</v>
+        <v>18.68</v>
       </c>
       <c r="H12">
-        <v>21.3</v>
+        <v>23.8</v>
       </c>
       <c r="I12">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="J12">
-        <v>98.02</v>
+        <v>116.12</v>
       </c>
     </row>
     <row r="13">
@@ -878,11 +856,11 @@
         </is>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Felicita</t>
+          <t>Carvel</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -890,27 +868,25 @@
           <t>female_purple</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="E13">
+        <v>25.09</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G13">
-        <v>14.28</v>
+        <v>13.81</v>
       </c>
       <c r="H13">
-        <v>30.3</v>
+        <v>22.5</v>
       </c>
       <c r="I13">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="J13">
-        <v>87.87</v>
+        <v>115.44</v>
       </c>
     </row>
     <row r="14">
@@ -920,39 +896,37 @@
         </is>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rosangela</t>
+          <t>Lahoma</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>m_green</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>39.75</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G14">
-        <v>15.04</v>
+        <v>18.12</v>
       </c>
       <c r="H14">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="I14">
-        <v>490</v>
+        <v>687</v>
       </c>
       <c r="J14">
-        <v>98.48</v>
+        <v>113.07</v>
       </c>
     </row>
     <row r="15">
@@ -962,22 +936,20 @@
         </is>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jared</t>
+          <t>Xavier</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>8.960000000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -985,16 +957,16 @@
         </is>
       </c>
       <c r="G15">
-        <v>13.55</v>
+        <v>15.58</v>
       </c>
       <c r="H15">
-        <v>26.4</v>
+        <v>-999</v>
       </c>
       <c r="I15">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="J15">
-        <v>91.91</v>
+        <v>103.34</v>
       </c>
     </row>
     <row r="16">
@@ -1004,22 +976,20 @@
         </is>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carnell</t>
+          <t>Lovelle</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E16">
+        <v>15.98</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1027,16 +997,16 @@
         </is>
       </c>
       <c r="G16">
-        <v>14.32</v>
+        <v>18.09</v>
       </c>
       <c r="H16">
-        <v>17.9</v>
+        <v>28.3</v>
       </c>
       <c r="I16">
-        <v>367</v>
+        <v>518</v>
       </c>
       <c r="J16">
-        <v>107.18</v>
+        <v>110.06</v>
       </c>
     </row>
     <row r="17">
@@ -1046,22 +1016,20 @@
         </is>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Glen</t>
+          <t>Jere</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>male_Purple</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E17">
+        <v>28.82</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1069,16 +1037,16 @@
         </is>
       </c>
       <c r="G17">
-        <v>18.37</v>
+        <v>15.77</v>
       </c>
       <c r="H17">
-        <v>33.7</v>
+        <v>26.5</v>
       </c>
       <c r="I17">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J17">
-        <v>114.01</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="18">
@@ -1088,39 +1056,37 @@
         </is>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Edin</t>
+          <t>Jihan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>5.2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G18">
-        <v>16.88</v>
+        <v>17.17</v>
       </c>
       <c r="H18">
-        <v>36.1</v>
+        <v>10.2</v>
       </c>
       <c r="I18">
-        <v>748</v>
+        <v>248</v>
       </c>
       <c r="J18">
-        <v>123.15</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1130,39 +1096,37 @@
         </is>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Magdalene</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E19">
+        <v>18.57</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G19">
-        <v>11.87</v>
+        <v>16.58</v>
       </c>
       <c r="H19">
-        <v>16.9</v>
+        <v>29.5</v>
       </c>
       <c r="I19">
-        <v>330</v>
+        <v>560</v>
       </c>
       <c r="J19">
-        <v>79.44</v>
+        <v>111.61</v>
       </c>
     </row>
     <row r="20">
@@ -1172,39 +1136,37 @@
         </is>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Trevin</t>
+          <t>Dexter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>male_orange</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>female_orange</t>
+        </is>
+      </c>
+      <c r="E20">
+        <v>9.98</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G20">
-        <v>19.2</v>
+        <v>13.95</v>
       </c>
       <c r="H20">
-        <v>25.6</v>
+        <v>-999</v>
       </c>
       <c r="I20">
-        <v>546</v>
+        <v>473</v>
       </c>
       <c r="J20">
-        <v>114.16</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="21">
@@ -1214,22 +1176,20 @@
         </is>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Krysta</t>
+          <t>Denyse</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E21">
+        <v>15.05</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1237,16 +1197,16 @@
         </is>
       </c>
       <c r="G21">
-        <v>20.56</v>
+        <v>15.51</v>
       </c>
       <c r="H21">
-        <v>35.4</v>
+        <v>-999</v>
       </c>
       <c r="I21">
-        <v>872</v>
+        <v>483</v>
       </c>
       <c r="J21">
-        <v>113.51</v>
+        <v>110.22</v>
       </c>
     </row>
     <row r="22">
@@ -1256,39 +1216,37 @@
         </is>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lanelle</t>
+          <t>Eugina</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>12.42</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G22">
-        <v>21.27</v>
+        <v>11.95</v>
       </c>
       <c r="H22">
-        <v>34.3</v>
+        <v>24</v>
       </c>
       <c r="I22">
-        <v>773</v>
+        <v>459</v>
       </c>
       <c r="J22">
-        <v>114.58</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1298,22 +1256,20 @@
         </is>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Martez</t>
+          <t>Alissa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>24.06</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1321,16 +1277,16 @@
         </is>
       </c>
       <c r="G23">
-        <v>17.96</v>
+        <v>16.67</v>
       </c>
       <c r="H23">
-        <v>17.5</v>
+        <v>29.5</v>
       </c>
       <c r="I23">
-        <v>356</v>
+        <v>601</v>
       </c>
       <c r="J23">
-        <v>99.90000000000001</v>
+        <v>102.33</v>
       </c>
     </row>
     <row r="24">
@@ -1340,39 +1296,37 @@
         </is>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Barth</t>
+          <t>Cody</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>female_Orange</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>36.67</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G24">
-        <v>15.67</v>
+        <v>16.84</v>
       </c>
       <c r="H24">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="I24">
-        <v>488</v>
+        <v>624</v>
       </c>
       <c r="J24">
-        <v>127.74</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="25">
@@ -1382,39 +1336,37 @@
         </is>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Foster</t>
+          <t>Dasia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>30.6</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G25">
-        <v>18.41</v>
+        <v>13.07</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="I25">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="J25">
-        <v>114.79</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="26">
@@ -1424,39 +1376,37 @@
         </is>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Lecie</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+          <t>m_Orange</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>16.04</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G26">
-        <v>20.45</v>
+        <v>17.95</v>
       </c>
       <c r="H26">
-        <v>31.4</v>
+        <v>28.8</v>
       </c>
       <c r="I26">
-        <v>857</v>
+        <v>529</v>
       </c>
       <c r="J26">
-        <v>105.19</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="27">
@@ -1466,53 +1416,51 @@
         </is>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tavia</t>
+          <t>Dorman</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>male_Purple</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>39.25</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G27">
-        <v>15.53</v>
+        <v>19.98</v>
       </c>
       <c r="H27">
-        <v>24.1</v>
+        <v>19.3</v>
       </c>
       <c r="I27">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="J27">
-        <v>121.85</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rivaldo</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1520,27 +1468,25 @@
           <t>female_purple</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="E28">
+        <v>19.19</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G28">
-        <v>11.52</v>
+        <v>12.02</v>
       </c>
       <c r="H28">
-        <v>33.8</v>
+        <v>36.2</v>
       </c>
       <c r="I28">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="J28">
-        <v>90.05</v>
+        <v>97.66</v>
       </c>
     </row>
     <row r="29">
@@ -1550,39 +1496,37 @@
         </is>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Caelin</t>
+          <t>Selby</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>male_Purple</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>13.17</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G29">
-        <v>19.16</v>
+        <v>10.7</v>
       </c>
       <c r="H29">
-        <v>30.6</v>
+        <v>28.6</v>
       </c>
       <c r="I29">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="J29">
-        <v>95.90000000000001</v>
+        <v>104.82</v>
       </c>
     </row>
     <row r="30">
@@ -1592,39 +1536,37 @@
         </is>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Meryll</t>
+          <t>Yancy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E30">
+        <v>9.640000000000001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G30">
-        <v>13.56</v>
+        <v>15.47</v>
       </c>
       <c r="H30">
-        <v>18.8</v>
+        <v>20.9</v>
       </c>
       <c r="I30">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="J30">
-        <v>95.18000000000001</v>
+        <v>74.73</v>
       </c>
     </row>
     <row r="31">
@@ -1634,22 +1576,20 @@
         </is>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Etoy</t>
+          <t>Freddy</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+          <t>m_purple</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>12.13</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1657,16 +1597,16 @@
         </is>
       </c>
       <c r="G31">
-        <v>14.63</v>
+        <v>14.64</v>
       </c>
       <c r="H31">
-        <v>28.1</v>
+        <v>-999</v>
       </c>
       <c r="I31">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="J31">
-        <v>84.37</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1676,39 +1616,37 @@
         </is>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Denetta</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>female_orange</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>11.15</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G32">
-        <v>12.26</v>
+        <v>16.3</v>
       </c>
       <c r="H32">
-        <v>34.2</v>
+        <v>-999</v>
       </c>
       <c r="I32">
-        <v>617</v>
+        <v>382</v>
       </c>
       <c r="J32">
-        <v>98.28</v>
+        <v>102.39</v>
       </c>
     </row>
     <row r="33">
@@ -1718,39 +1656,37 @@
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ameria</t>
+          <t>Desean</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>5.98</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G33">
-        <v>18.62</v>
+        <v>16.25</v>
       </c>
       <c r="H33">
-        <v>27.6</v>
+        <v>24.3</v>
       </c>
       <c r="I33">
-        <v>650</v>
+        <v>408</v>
       </c>
       <c r="J33">
-        <v>89.48</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="34">
@@ -1760,11 +1696,11 @@
         </is>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aric</t>
+          <t>Faun</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1772,10 +1708,8 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="E34">
+        <v>20.62</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1783,16 +1717,16 @@
         </is>
       </c>
       <c r="G34">
-        <v>12.33</v>
+        <v>16.81</v>
       </c>
       <c r="H34">
-        <v>31.2</v>
+        <v>-999</v>
       </c>
       <c r="I34">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="J34">
-        <v>104.08</v>
+        <v>110.33</v>
       </c>
     </row>
     <row r="35">
@@ -1802,39 +1736,37 @@
         </is>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kista</t>
+          <t>Rahmon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E35">
+        <v>49.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G35">
-        <v>22.84</v>
+        <v>20.79</v>
       </c>
       <c r="H35">
-        <v>-999</v>
+        <v>34.1</v>
       </c>
       <c r="I35">
-        <v>902</v>
+        <v>809</v>
       </c>
       <c r="J35">
-        <v>121.64</v>
+        <v>116.21</v>
       </c>
     </row>
     <row r="36">
@@ -1844,11 +1776,11 @@
         </is>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jarron</t>
+          <t>Melida</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1856,27 +1788,25 @@
           <t>female_purple</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="E36">
+        <v>31.56</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G36">
-        <v>14.62</v>
+        <v>16.94</v>
       </c>
       <c r="H36">
-        <v>28.3</v>
+        <v>-999</v>
       </c>
       <c r="I36">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="J36">
-        <v>100.12</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="37">
@@ -1886,39 +1816,37 @@
         </is>
       </c>
       <c r="B37">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Suzon</t>
+          <t>Ganell</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>f_Purple</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>female_Orange</t>
+        </is>
+      </c>
+      <c r="E37">
+        <v>17.29</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G37">
-        <v>11.44</v>
+        <v>13.61</v>
       </c>
       <c r="H37">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="I37">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="J37">
-        <v>79.55</v>
+        <v>99.62</v>
       </c>
     </row>
     <row r="38">
@@ -1928,11 +1856,11 @@
         </is>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Maiyah</t>
+          <t>Kimberleigh</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1940,27 +1868,25 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="E38">
+        <v>21.6</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G38">
-        <v>17.3</v>
+        <v>16.35</v>
       </c>
       <c r="H38">
-        <v>27.8</v>
+        <v>-999</v>
       </c>
       <c r="I38">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="J38">
-        <v>125.17</v>
+        <v>132.08</v>
       </c>
     </row>
     <row r="39">
@@ -1970,11 +1896,11 @@
         </is>
       </c>
       <c r="B39">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kalab</t>
+          <t>Jakaela</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1982,10 +1908,8 @@
           <t>female_Green</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="E39">
+        <v>18.37</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1993,16 +1917,16 @@
         </is>
       </c>
       <c r="G39">
-        <v>13.09</v>
+        <v>13.67</v>
       </c>
       <c r="H39">
-        <v>25.4</v>
+        <v>21.8</v>
       </c>
       <c r="I39">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="J39">
-        <v>94.7</v>
+        <v>91.84</v>
       </c>
     </row>
     <row r="40">
@@ -2012,22 +1936,20 @@
         </is>
       </c>
       <c r="B40">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Auriella</t>
+          <t>Ellison</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E40">
+        <v>29.66</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2035,16 +1957,16 @@
         </is>
       </c>
       <c r="G40">
-        <v>16.62</v>
+        <v>15.12</v>
       </c>
       <c r="H40">
-        <v>28.1</v>
+        <v>18.1</v>
       </c>
       <c r="I40">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="J40">
-        <v>74.68000000000001</v>
+        <v>105.11</v>
       </c>
     </row>
     <row r="41">
@@ -2054,22 +1976,20 @@
         </is>
       </c>
       <c r="B41">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Harout</t>
+          <t>Pershing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E41">
+        <v>6.23</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2077,16 +1997,16 @@
         </is>
       </c>
       <c r="G41">
-        <v>19.92</v>
+        <v>13.41</v>
       </c>
       <c r="H41">
-        <v>22</v>
+        <v>28.4</v>
       </c>
       <c r="I41">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="J41">
-        <v>119.92</v>
+        <v>73.14</v>
       </c>
     </row>
     <row r="42">
@@ -2096,22 +2016,20 @@
         </is>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dwane</t>
+          <t>Gio</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>f_purple</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>female_red</t>
+        </is>
+      </c>
+      <c r="E42">
+        <v>36.24</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2119,16 +2037,16 @@
         </is>
       </c>
       <c r="G42">
-        <v>14.97</v>
+        <v>13.33</v>
       </c>
       <c r="H42">
-        <v>27.3</v>
+        <v>-999</v>
       </c>
       <c r="I42">
-        <v>501</v>
+        <v>723</v>
       </c>
       <c r="J42">
-        <v>91.09999999999999</v>
+        <v>100.57</v>
       </c>
     </row>
     <row r="43">
@@ -2138,39 +2056,37 @@
         </is>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Farrah</t>
+          <t>Kelle</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>female_Orange</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E43">
+        <v>13.43</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G43">
-        <v>9.390000000000001</v>
+        <v>13.99</v>
       </c>
       <c r="H43">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="I43">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="J43">
-        <v>117.92</v>
+        <v>112.09</v>
       </c>
     </row>
     <row r="44">
@@ -2180,22 +2096,20 @@
         </is>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Giselda</t>
+          <t>Kyleena</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>11.62</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2203,16 +2117,16 @@
         </is>
       </c>
       <c r="G44">
-        <v>16.09</v>
+        <v>11.99</v>
       </c>
       <c r="H44">
-        <v>22.6</v>
+        <v>36.2</v>
       </c>
       <c r="I44">
-        <v>481</v>
+        <v>581</v>
       </c>
       <c r="J44">
-        <v>98.04000000000001</v>
+        <v>89.36</v>
       </c>
     </row>
     <row r="45">
@@ -2222,11 +2136,11 @@
         </is>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Niambi</t>
+          <t>Crockett</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2234,27 +2148,25 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E45">
+        <v>12.92</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G45">
-        <v>14.14</v>
+        <v>14.04</v>
       </c>
       <c r="H45">
-        <v>21.3</v>
+        <v>32.8</v>
       </c>
       <c r="I45">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="J45">
-        <v>65.97</v>
+        <v>110.52</v>
       </c>
     </row>
     <row r="46">
@@ -2264,11 +2176,11 @@
         </is>
       </c>
       <c r="B46">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Holton</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2276,27 +2188,25 @@
           <t>female_purple</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="E46">
+        <v>10.11</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G46">
-        <v>13.78</v>
+        <v>14.28</v>
       </c>
       <c r="H46">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="I46">
-        <v>566</v>
+        <v>462</v>
       </c>
       <c r="J46">
-        <v>106.28</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="47">
@@ -2306,39 +2216,37 @@
         </is>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Darlin</t>
+          <t>Noa</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>f_green</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>female_Green</t>
+        </is>
+      </c>
+      <c r="E47">
+        <v>5.6</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G47">
-        <v>12.08</v>
+        <v>10.79</v>
       </c>
       <c r="H47">
-        <v>25.7</v>
+        <v>15.5</v>
       </c>
       <c r="I47">
-        <v>430</v>
+        <v>312</v>
       </c>
       <c r="J47">
-        <v>82.8</v>
+        <v>86.02</v>
       </c>
     </row>
     <row r="48">
@@ -2348,39 +2256,37 @@
         </is>
       </c>
       <c r="B48">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adelia</t>
+          <t>Della</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>male_Green</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>m_Orange</t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>37.81</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G48">
-        <v>17.33</v>
+        <v>19.73</v>
       </c>
       <c r="H48">
-        <v>30.3</v>
+        <v>27.2</v>
       </c>
       <c r="I48">
-        <v>462</v>
+        <v>656</v>
       </c>
       <c r="J48">
-        <v>116.02</v>
+        <v>105.88</v>
       </c>
     </row>
     <row r="49">
@@ -2390,22 +2296,20 @@
         </is>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kathryne</t>
+          <t>Tenesha</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>39.49</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2413,16 +2317,16 @@
         </is>
       </c>
       <c r="G49">
-        <v>11.5</v>
+        <v>20.1</v>
       </c>
       <c r="H49">
-        <v>30.6</v>
+        <v>-999</v>
       </c>
       <c r="I49">
-        <v>529</v>
+        <v>754</v>
       </c>
       <c r="J49">
-        <v>93.27</v>
+        <v>107.13</v>
       </c>
     </row>
     <row r="50">
@@ -2432,39 +2336,37 @@
         </is>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lois</t>
+          <t>Tesslyn</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>f_green</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>male_Orange</t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>16.42</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G50">
-        <v>17.23</v>
+        <v>14.37</v>
       </c>
       <c r="H50">
-        <v>39.7</v>
+        <v>24.6</v>
       </c>
       <c r="I50">
-        <v>787</v>
+        <v>484</v>
       </c>
       <c r="J50">
-        <v>90.08</v>
+        <v>125.71</v>
       </c>
     </row>
     <row r="51">
@@ -2474,22 +2376,20 @@
         </is>
       </c>
       <c r="B51">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Donnis</t>
+          <t>Gaylyn</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>m_orange</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>4.26</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2497,16 +2397,16 @@
         </is>
       </c>
       <c r="G51">
-        <v>19.24</v>
+        <v>10.6</v>
       </c>
       <c r="H51">
-        <v>24.6</v>
+        <v>18.4</v>
       </c>
       <c r="I51">
-        <v>554</v>
+        <v>340</v>
       </c>
       <c r="J51">
-        <v>123.3</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2516,11 +2416,11 @@
         </is>
       </c>
       <c r="B52">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tabetha</t>
+          <t>Darlis</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2528,10 +2428,8 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="E52">
+        <v>20.41</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2539,58 +2437,56 @@
         </is>
       </c>
       <c r="G52">
-        <v>15.05</v>
+        <v>16.76</v>
       </c>
       <c r="H52">
-        <v>37.3</v>
+        <v>34.2</v>
       </c>
       <c r="I52">
-        <v>798</v>
+        <v>614</v>
       </c>
       <c r="J52">
-        <v>109.13</v>
+        <v>115.29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Southland</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B53">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Latiffany</t>
+          <t>Aslam</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>15.76</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G53">
-        <v>14.89</v>
+        <v>11.6</v>
       </c>
       <c r="H53">
-        <v>11.2</v>
+        <v>23.3</v>
       </c>
       <c r="I53">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="J53">
-        <v>112.81</v>
+        <v>89.06999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2600,11 +2496,11 @@
         </is>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kyannah</t>
+          <t>Valeri</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2612,10 +2508,8 @@
           <t>female_purple</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E54">
+        <v>7.73</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2623,58 +2517,56 @@
         </is>
       </c>
       <c r="G54">
-        <v>12.42</v>
+        <v>12.94</v>
       </c>
       <c r="H54">
-        <v>30.6</v>
+        <v>18.4</v>
       </c>
       <c r="I54">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="J54">
-        <v>64.40000000000001</v>
+        <v>83.58</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="B55">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lowry</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>f_orange</t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>12</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G55">
-        <v>10.37</v>
+        <v>14.19</v>
       </c>
       <c r="H55">
-        <v>29.8</v>
+        <v>26.1</v>
       </c>
       <c r="I55">
-        <v>533</v>
+        <v>464</v>
       </c>
       <c r="J55">
-        <v>104.31</v>
+        <v>101.82</v>
       </c>
     </row>
     <row r="56">
@@ -2684,22 +2576,20 @@
         </is>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tad</t>
+          <t>Tinita</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>f_red</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>12.32</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2707,16 +2597,16 @@
         </is>
       </c>
       <c r="G56">
-        <v>16.09</v>
+        <v>14.71</v>
       </c>
       <c r="H56">
-        <v>35.7</v>
+        <v>33.3</v>
       </c>
       <c r="I56">
-        <v>663</v>
+        <v>554</v>
       </c>
       <c r="J56">
-        <v>105.29</v>
+        <v>111.64</v>
       </c>
     </row>
     <row r="57">
@@ -2726,22 +2616,20 @@
         </is>
       </c>
       <c r="B57">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Burns</t>
+          <t>Rosalynn</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>39.23</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2749,16 +2637,16 @@
         </is>
       </c>
       <c r="G57">
-        <v>19.89</v>
+        <v>14.79</v>
       </c>
       <c r="H57">
-        <v>23.1</v>
+        <v>-999</v>
       </c>
       <c r="I57">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="J57">
-        <v>132.25</v>
+        <v>114.64</v>
       </c>
     </row>
     <row r="58">
@@ -2768,22 +2656,20 @@
         </is>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cania</t>
+          <t>Asher</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>female_Purple</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>female_Green</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>40.37</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2791,16 +2677,16 @@
         </is>
       </c>
       <c r="G58">
-        <v>14.82</v>
+        <v>17.42</v>
       </c>
       <c r="H58">
-        <v>27.4</v>
+        <v>28.2</v>
       </c>
       <c r="I58">
-        <v>457</v>
+        <v>706</v>
       </c>
       <c r="J58">
-        <v>75.72</v>
+        <v>95.42</v>
       </c>
     </row>
     <row r="59">
@@ -2810,22 +2696,20 @@
         </is>
       </c>
       <c r="B59">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Izola</t>
+          <t>Osmar</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>26.56</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2833,16 +2717,16 @@
         </is>
       </c>
       <c r="G59">
-        <v>13.58</v>
+        <v>13.23</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>-999</v>
       </c>
       <c r="I59">
-        <v>359</v>
+        <v>505</v>
       </c>
       <c r="J59">
-        <v>92.79000000000001</v>
+        <v>83.76000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -2852,11 +2736,11 @@
         </is>
       </c>
       <c r="B60">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Zierra</t>
+          <t>Plummer</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2864,27 +2748,25 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="E60">
+        <v>20.06</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G60">
-        <v>22.39</v>
+        <v>16.32</v>
       </c>
       <c r="H60">
-        <v>34.7</v>
+        <v>24.1</v>
       </c>
       <c r="I60">
-        <v>808</v>
+        <v>507</v>
       </c>
       <c r="J60">
-        <v>131.29</v>
+        <v>128.05</v>
       </c>
     </row>
     <row r="61">
@@ -2894,39 +2776,37 @@
         </is>
       </c>
       <c r="B61">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jayquan</t>
+          <t>Gerrald</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>female_Purple</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>70.28</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>very spotty</t>
         </is>
       </c>
       <c r="G61">
-        <v>13.32</v>
+        <v>21.7</v>
       </c>
       <c r="H61">
-        <v>25.7</v>
+        <v>32.3</v>
       </c>
       <c r="I61">
-        <v>536</v>
+        <v>947</v>
       </c>
       <c r="J61">
-        <v>91.13</v>
+        <v>115.39</v>
       </c>
     </row>
     <row r="62">
@@ -2936,22 +2816,20 @@
         </is>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dortha</t>
+          <t>Gwendolyn</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>14.22</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2959,16 +2837,16 @@
         </is>
       </c>
       <c r="G62">
-        <v>13.98</v>
+        <v>17.44</v>
       </c>
       <c r="H62">
-        <v>31.2</v>
+        <v>30.5</v>
       </c>
       <c r="I62">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="J62">
-        <v>58.52</v>
+        <v>76.79000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2978,39 +2856,37 @@
         </is>
       </c>
       <c r="B63">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Elmo</t>
+          <t>Harmoni</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>7.75</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G63">
-        <v>14.66</v>
+        <v>15.98</v>
       </c>
       <c r="H63">
-        <v>25.9</v>
+        <v>-999</v>
       </c>
       <c r="I63">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="J63">
-        <v>97.88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
@@ -3020,39 +2896,37 @@
         </is>
       </c>
       <c r="B64">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jadeth</t>
+          <t>Ahmir</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>11.01</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>very spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G64">
-        <v>21.54</v>
+        <v>8.94</v>
       </c>
       <c r="H64">
-        <v>32</v>
+        <v>28.9</v>
       </c>
       <c r="I64">
-        <v>821</v>
+        <v>491</v>
       </c>
       <c r="J64">
-        <v>142.67</v>
+        <v>94.66</v>
       </c>
     </row>
     <row r="65">
@@ -3062,39 +2936,37 @@
         </is>
       </c>
       <c r="B65">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Brittnie</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>16.35</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G65">
-        <v>16.28</v>
+        <v>16.46</v>
       </c>
       <c r="H65">
-        <v>31.2</v>
+        <v>24.4</v>
       </c>
       <c r="I65">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="J65">
-        <v>79.03</v>
+        <v>107.35</v>
       </c>
     </row>
     <row r="66">
@@ -3104,39 +2976,37 @@
         </is>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jay</t>
+          <t>Jalise</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>f_green</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>6.53</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G66">
-        <v>18.59</v>
+        <v>13.97</v>
       </c>
       <c r="H66">
-        <v>33.5</v>
+        <v>25.1</v>
       </c>
       <c r="I66">
-        <v>697</v>
+        <v>423</v>
       </c>
       <c r="J66">
-        <v>115.9</v>
+        <v>81.39</v>
       </c>
     </row>
     <row r="67">
@@ -3146,39 +3016,37 @@
         </is>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Felicita</t>
+          <t>Cathaleen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>m_Green</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>17.88</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G67">
-        <v>13.94</v>
+        <v>16.09</v>
       </c>
       <c r="H67">
-        <v>29.6</v>
+        <v>24.8</v>
       </c>
       <c r="I67">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="J67">
-        <v>77.02</v>
+        <v>114.37</v>
       </c>
     </row>
     <row r="68">
@@ -3188,22 +3056,20 @@
         </is>
       </c>
       <c r="B68">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Breyanna</t>
+          <t>Tien</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>10.69</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3211,16 +3077,16 @@
         </is>
       </c>
       <c r="G68">
-        <v>16.24</v>
+        <v>16.79</v>
       </c>
       <c r="H68">
-        <v>28.3</v>
+        <v>-999</v>
       </c>
       <c r="I68">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="J68">
-        <v>115.89</v>
+        <v>109.26</v>
       </c>
     </row>
     <row r="69">
@@ -3230,22 +3096,20 @@
         </is>
       </c>
       <c r="B69">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Everlyse</t>
+          <t>Renata</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>f_purple</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>female_orange</t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>29.09</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3253,16 +3117,16 @@
         </is>
       </c>
       <c r="G69">
-        <v>17.14</v>
+        <v>12.59</v>
       </c>
       <c r="H69">
-        <v>33.7</v>
+        <v>32.5</v>
       </c>
       <c r="I69">
-        <v>509</v>
+        <v>663</v>
       </c>
       <c r="J69">
-        <v>66.5</v>
+        <v>103.78</v>
       </c>
     </row>
     <row r="70">
@@ -3272,39 +3136,37 @@
         </is>
       </c>
       <c r="B70">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jenalyn</t>
+          <t>Malon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>26.77</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G70">
-        <v>13.3</v>
+        <v>13.11</v>
       </c>
       <c r="H70">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="I70">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="J70">
-        <v>90.36</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -3314,39 +3176,37 @@
         </is>
       </c>
       <c r="B71">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Keneshia</t>
+          <t>Marryn</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>female_red</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>female_Purple</t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>34.14</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G71">
-        <v>8.140000000000001</v>
+        <v>18.29</v>
       </c>
       <c r="H71">
-        <v>35.1</v>
+        <v>37.2</v>
       </c>
       <c r="I71">
-        <v>547</v>
+        <v>740</v>
       </c>
       <c r="J71">
-        <v>97.56</v>
+        <v>79.79000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -3356,11 +3216,11 @@
         </is>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sharad</t>
+          <t>Tarrie</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3368,10 +3228,8 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="E72">
+        <v>41.47</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3379,16 +3237,16 @@
         </is>
       </c>
       <c r="G72">
-        <v>17.08</v>
+        <v>19.27</v>
       </c>
       <c r="H72">
-        <v>25.7</v>
+        <v>32.4</v>
       </c>
       <c r="I72">
-        <v>451</v>
+        <v>755</v>
       </c>
       <c r="J72">
-        <v>92.51000000000001</v>
+        <v>121.32</v>
       </c>
     </row>
     <row r="73">
@@ -3398,39 +3256,37 @@
         </is>
       </c>
       <c r="B73">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bernerd</t>
+          <t>Weir</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>36.12</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G73">
-        <v>17.98</v>
+        <v>16.09</v>
       </c>
       <c r="H73">
-        <v>24.6</v>
+        <v>-999</v>
       </c>
       <c r="I73">
-        <v>503</v>
+        <v>635</v>
       </c>
       <c r="J73">
-        <v>120.15</v>
+        <v>109.11</v>
       </c>
     </row>
     <row r="74">
@@ -3440,39 +3296,37 @@
         </is>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Layney</t>
+          <t>Corda</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>male_orange</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>female_Purple</t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>47.6</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>very spotty</t>
         </is>
       </c>
       <c r="G74">
-        <v>14.09</v>
+        <v>20.22</v>
       </c>
       <c r="H74">
-        <v>31.4</v>
+        <v>-999</v>
       </c>
       <c r="I74">
-        <v>499</v>
+        <v>684</v>
       </c>
       <c r="J74">
-        <v>95.23999999999999</v>
+        <v>96.63</v>
       </c>
     </row>
     <row r="75">
@@ -3482,22 +3336,20 @@
         </is>
       </c>
       <c r="B75">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Solon</t>
+          <t>Stormy</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>male_orange</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>14.46</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3505,16 +3357,16 @@
         </is>
       </c>
       <c r="G75">
-        <v>13.74</v>
+        <v>9</v>
       </c>
       <c r="H75">
-        <v>22.1</v>
+        <v>24.9</v>
       </c>
       <c r="I75">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="J75">
-        <v>113.09</v>
+        <v>87.56999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -3524,53 +3376,51 @@
         </is>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Margene</t>
+          <t>Vira</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>17.72</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G76">
-        <v>17.61</v>
+        <v>14.05</v>
       </c>
       <c r="H76">
-        <v>30.1</v>
+        <v>28.5</v>
       </c>
       <c r="I76">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="J76">
-        <v>94.43000000000001</v>
+        <v>102.62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Westland</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B77">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Denzel</t>
+          <t>Hesston</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3578,27 +3428,25 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E77">
+        <v>73.8</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>very spotty</t>
         </is>
       </c>
       <c r="G77">
-        <v>15.48</v>
+        <v>24.54</v>
       </c>
       <c r="H77">
-        <v>27.7</v>
+        <v>37.5</v>
       </c>
       <c r="I77">
-        <v>520</v>
+        <v>1032</v>
       </c>
       <c r="J77">
-        <v>116.58</v>
+        <v>102.13</v>
       </c>
     </row>
     <row r="78">
@@ -3608,22 +3456,20 @@
         </is>
       </c>
       <c r="B78">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mohammad</t>
+          <t>Nardos</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>male_green</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>52.68</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3631,16 +3477,16 @@
         </is>
       </c>
       <c r="G78">
-        <v>14.16</v>
+        <v>18.05</v>
       </c>
       <c r="H78">
-        <v>25.8</v>
+        <v>24.4</v>
       </c>
       <c r="I78">
-        <v>499</v>
+        <v>731</v>
       </c>
       <c r="J78">
-        <v>115.82</v>
+        <v>85.23999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -3650,39 +3496,37 @@
         </is>
       </c>
       <c r="B79">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Socorro</t>
+          <t>Annabella</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>f_purple</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>10.06</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G79">
-        <v>14.53</v>
+        <v>16.81</v>
       </c>
       <c r="H79">
-        <v>27.7</v>
+        <v>23.7</v>
       </c>
       <c r="I79">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="J79">
-        <v>105.71</v>
+        <v>95.84999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -3692,22 +3536,20 @@
         </is>
       </c>
       <c r="B80">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lurine</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>female_orange</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>25.18</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3715,16 +3557,16 @@
         </is>
       </c>
       <c r="G80">
-        <v>18.65</v>
+        <v>15.53</v>
       </c>
       <c r="H80">
-        <v>28.9</v>
+        <v>36.4</v>
       </c>
       <c r="I80">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="J80">
-        <v>107.49</v>
+        <v>130.27</v>
       </c>
     </row>
     <row r="81">
@@ -3734,39 +3576,37 @@
         </is>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Apphia</t>
+          <t>Ina</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>female_Purple</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E81">
+        <v>35.6</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G81">
-        <v>12.09</v>
+        <v>14.82</v>
       </c>
       <c r="H81">
-        <v>33.7</v>
+        <v>23.7</v>
       </c>
       <c r="I81">
-        <v>492</v>
+        <v>614</v>
       </c>
       <c r="J81">
-        <v>67.43000000000001</v>
+        <v>125.61</v>
       </c>
     </row>
     <row r="82">
@@ -3776,22 +3616,20 @@
         </is>
       </c>
       <c r="B82">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sharalyn</t>
+          <t>Coye</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>male_Green</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>10.7</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3799,16 +3637,16 @@
         </is>
       </c>
       <c r="G82">
-        <v>15.13</v>
+        <v>12.88</v>
       </c>
       <c r="H82">
-        <v>19.3</v>
+        <v>25.9</v>
       </c>
       <c r="I82">
-        <v>374</v>
+        <v>464</v>
       </c>
       <c r="J82">
-        <v>100.01</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="83">
@@ -3818,11 +3656,11 @@
         </is>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lorma</t>
+          <t>Felicia</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3830,27 +3668,25 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="E83">
+        <v>8.65</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>very spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G83">
-        <v>22.35</v>
+        <v>13.05</v>
       </c>
       <c r="H83">
-        <v>35.3</v>
+        <v>29.5</v>
       </c>
       <c r="I83">
-        <v>809</v>
+        <v>487</v>
       </c>
       <c r="J83">
-        <v>117.7</v>
+        <v>116.61</v>
       </c>
     </row>
     <row r="84">
@@ -3860,22 +3696,20 @@
         </is>
       </c>
       <c r="B84">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Shanell</t>
+          <t>Simran</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>2.75</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3883,16 +3717,16 @@
         </is>
       </c>
       <c r="G84">
-        <v>14.68</v>
+        <v>9.18</v>
       </c>
       <c r="H84">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="I84">
-        <v>467</v>
+        <v>388</v>
       </c>
       <c r="J84">
-        <v>120.8</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="85">
@@ -3902,11 +3736,11 @@
         </is>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tattiana</t>
+          <t>Mahamadou</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3914,10 +3748,8 @@
           <t>male_purple</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="E85">
+        <v>46.87</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3925,16 +3757,16 @@
         </is>
       </c>
       <c r="G85">
-        <v>16.89</v>
+        <v>20.39</v>
       </c>
       <c r="H85">
-        <v>27.2</v>
+        <v>16.2</v>
       </c>
       <c r="I85">
-        <v>484</v>
+        <v>617</v>
       </c>
       <c r="J85">
-        <v>82.86</v>
+        <v>135.4</v>
       </c>
     </row>
     <row r="86">
@@ -3944,22 +3776,20 @@
         </is>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Jaunita</t>
+          <t>Anila</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>male_orange</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+          <t>female_red</t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>17.9</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3967,16 +3797,16 @@
         </is>
       </c>
       <c r="G86">
-        <v>18.25</v>
+        <v>15.68</v>
       </c>
       <c r="H86">
-        <v>27.9</v>
+        <v>19.6</v>
       </c>
       <c r="I86">
-        <v>564</v>
+        <v>441</v>
       </c>
       <c r="J86">
-        <v>106.03</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -3986,22 +3816,20 @@
         </is>
       </c>
       <c r="B87">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Vernon</t>
+          <t>Nidya</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>7.64</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4009,16 +3837,16 @@
         </is>
       </c>
       <c r="G87">
-        <v>13.83</v>
+        <v>14.82</v>
       </c>
       <c r="H87">
-        <v>29.8</v>
+        <v>26.9</v>
       </c>
       <c r="I87">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="J87">
-        <v>68.84</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="88">
@@ -4028,39 +3856,37 @@
         </is>
       </c>
       <c r="B88">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Michaela</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>f_purple</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>38.01</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G88">
-        <v>14.88</v>
+        <v>17.12</v>
       </c>
       <c r="H88">
-        <v>27.2</v>
+        <v>31.1</v>
       </c>
       <c r="I88">
-        <v>614</v>
+        <v>706</v>
       </c>
       <c r="J88">
-        <v>109.78</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="89">
@@ -4070,39 +3896,37 @@
         </is>
       </c>
       <c r="B89">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bettyjean</t>
+          <t>Camella</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>female_Green</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>18.61</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>very spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G89">
-        <v>19.53</v>
+        <v>16.37</v>
       </c>
       <c r="H89">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="I89">
-        <v>758</v>
+        <v>572</v>
       </c>
       <c r="J89">
-        <v>109.04</v>
+        <v>122.81</v>
       </c>
     </row>
     <row r="90">
@@ -4112,22 +3936,20 @@
         </is>
       </c>
       <c r="B90">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Deneisha</t>
+          <t>Ivis</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>27.21</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4135,16 +3957,16 @@
         </is>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>15.29</v>
       </c>
       <c r="H90">
-        <v>28.4</v>
+        <v>30.9</v>
       </c>
       <c r="I90">
-        <v>462</v>
+        <v>631</v>
       </c>
       <c r="J90">
-        <v>91.91</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="91">
@@ -4154,22 +3976,20 @@
         </is>
       </c>
       <c r="B91">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Naiem</t>
+          <t>Monita</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>15.09</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4177,16 +3997,16 @@
         </is>
       </c>
       <c r="G91">
-        <v>16.75</v>
+        <v>15.54</v>
       </c>
       <c r="H91">
-        <v>33.1</v>
+        <v>29.1</v>
       </c>
       <c r="I91">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="J91">
-        <v>97.03</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="92">
@@ -4196,22 +4016,20 @@
         </is>
       </c>
       <c r="B92">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Delishia</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>60.15</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4219,16 +4037,16 @@
         </is>
       </c>
       <c r="G92">
-        <v>12.64</v>
+        <v>19.64</v>
       </c>
       <c r="H92">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="I92">
-        <v>461</v>
+        <v>852</v>
       </c>
       <c r="J92">
-        <v>69.72</v>
+        <v>121.97</v>
       </c>
     </row>
     <row r="93">
@@ -4238,39 +4056,37 @@
         </is>
       </c>
       <c r="B93">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Minh</t>
+          <t>Garry</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>21.79</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>slightly spotty</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G93">
-        <v>16.57</v>
+        <v>14.59</v>
       </c>
       <c r="H93">
-        <v>22.4</v>
+        <v>26.1</v>
       </c>
       <c r="I93">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="J93">
-        <v>112.15</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4280,39 +4096,37 @@
         </is>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jazzman</t>
+          <t>Quincie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+          <t>f_green</t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>26.51</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>very spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G94">
-        <v>25.06</v>
+        <v>13.5</v>
       </c>
       <c r="H94">
-        <v>38.6</v>
+        <v>24.7</v>
       </c>
       <c r="I94">
-        <v>925</v>
+        <v>555</v>
       </c>
       <c r="J94">
-        <v>122.77</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="95">
@@ -4322,39 +4136,37 @@
         </is>
       </c>
       <c r="B95">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Reily</t>
+          <t>Samay</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>female_purple</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>53.96</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>spotty</t>
         </is>
       </c>
       <c r="G95">
-        <v>14.59</v>
+        <v>24.38</v>
       </c>
       <c r="H95">
-        <v>29.3</v>
+        <v>33.9</v>
       </c>
       <c r="I95">
-        <v>467</v>
+        <v>849</v>
       </c>
       <c r="J95">
-        <v>74.20999999999999</v>
+        <v>123.24</v>
       </c>
     </row>
     <row r="96">
@@ -4364,11 +4176,11 @@
         </is>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Marrion</t>
+          <t>Madilyne</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4376,10 +4188,8 @@
           <t>male_green</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="E96">
+        <v>52.86</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4387,16 +4197,16 @@
         </is>
       </c>
       <c r="G96">
-        <v>18.1</v>
+        <v>21.47</v>
       </c>
       <c r="H96">
-        <v>21.5</v>
+        <v>25.2</v>
       </c>
       <c r="I96">
-        <v>550</v>
+        <v>744</v>
       </c>
       <c r="J96">
-        <v>119.16</v>
+        <v>127.82</v>
       </c>
     </row>
     <row r="97">
@@ -4406,39 +4216,37 @@
         </is>
       </c>
       <c r="B97">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Laiyah</t>
+          <t>Irl</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>female_Orange</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+          <t>f_red</t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>10.35</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G97">
-        <v>14.43</v>
+        <v>13.34</v>
       </c>
       <c r="H97">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="I97">
-        <v>548</v>
+        <v>477</v>
       </c>
       <c r="J97">
-        <v>101.84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
@@ -4448,39 +4256,37 @@
         </is>
       </c>
       <c r="B98">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Hyder</t>
+          <t>Isack</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>f_Green</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>33.84</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>slightly spotty</t>
         </is>
       </c>
       <c r="G98">
-        <v>16.1</v>
+        <v>20.09</v>
       </c>
       <c r="H98">
-        <v>25.9</v>
+        <v>29.2</v>
       </c>
       <c r="I98">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="J98">
-        <v>104.83</v>
+        <v>127.21</v>
       </c>
     </row>
     <row r="99">
@@ -4490,39 +4296,37 @@
         </is>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Shaul</t>
+          <t>Colleen</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>female_green</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>7.97</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>spotty</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="G99">
-        <v>14.91</v>
+        <v>11.96</v>
       </c>
       <c r="H99">
-        <v>32.7</v>
+        <v>23</v>
       </c>
       <c r="I99">
-        <v>660</v>
+        <v>407</v>
       </c>
       <c r="J99">
-        <v>110.81</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="100">
@@ -4532,22 +4336,20 @@
         </is>
       </c>
       <c r="B100">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Teagyn</t>
+          <t>Tice</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>male_purple</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E100">
+        <v>12.81</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4555,16 +4357,16 @@
         </is>
       </c>
       <c r="G100">
-        <v>12.03</v>
+        <v>15.57</v>
       </c>
       <c r="H100">
-        <v>30.6</v>
+        <v>24</v>
       </c>
       <c r="I100">
-        <v>543</v>
+        <v>450</v>
       </c>
       <c r="J100">
-        <v>102.39</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="101">
@@ -4574,39 +4376,4037 @@
         </is>
       </c>
       <c r="B101">
+        <v>184</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sausha</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>f_Purple</t>
+        </is>
+      </c>
+      <c r="E101">
+        <v>21.74</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G101">
+        <v>18.98</v>
+      </c>
+      <c r="H101">
+        <v>18.9</v>
+      </c>
+      <c r="I101">
+        <v>465</v>
+      </c>
+      <c r="J101">
+        <v>101.61</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gail</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E102">
+        <v>7.44</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G102">
+        <v>11.36</v>
+      </c>
+      <c r="H102">
+        <v>27</v>
+      </c>
+      <c r="I102">
+        <v>445</v>
+      </c>
+      <c r="J102">
+        <v>104.63</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>70</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sheridan</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E103">
+        <v>11.82</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G103">
+        <v>14.18</v>
+      </c>
+      <c r="H103">
+        <v>34.6</v>
+      </c>
+      <c r="I103">
+        <v>562</v>
+      </c>
+      <c r="J103">
+        <v>99.72</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>80</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Vernecia</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E104">
+        <v>4.86</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G104">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="H104">
+        <v>29.2</v>
+      </c>
+      <c r="I104">
+        <v>450</v>
+      </c>
+      <c r="J104">
+        <v>67.63</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Aubrey</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>23.28</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G105">
+        <v>14.49</v>
+      </c>
+      <c r="H105">
+        <v>23.1</v>
+      </c>
+      <c r="I105">
+        <v>522</v>
+      </c>
+      <c r="J105">
+        <v>109.75</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>145</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Kameal</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>m_purple</t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>13.45</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G106">
+        <v>19.94</v>
+      </c>
+      <c r="H106">
+        <v>27.6</v>
+      </c>
+      <c r="I106">
+        <v>506</v>
+      </c>
+      <c r="J106">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Southland</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>82</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tabita</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>19.64</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G107">
+        <v>15.54</v>
+      </c>
+      <c r="H107">
+        <v>37</v>
+      </c>
+      <c r="I107">
+        <v>638</v>
+      </c>
+      <c r="J107">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>31</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Delray</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>female_Green</t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>2.97</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G108">
+        <v>16.12</v>
+      </c>
+      <c r="H108">
+        <v>20.3</v>
+      </c>
+      <c r="I108">
+        <v>349</v>
+      </c>
+      <c r="J108">
+        <v>73.76000000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>154</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Quasim</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>1.09</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G109">
+        <v>16.78</v>
+      </c>
+      <c r="H109">
+        <v>26.1</v>
+      </c>
+      <c r="I109">
+        <v>393</v>
+      </c>
+      <c r="J109">
+        <v>93.20999999999999</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>78</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Omaira</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>female_Purple</t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>30.06</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G110">
+        <v>10.39</v>
+      </c>
+      <c r="H110">
+        <v>32.5</v>
+      </c>
+      <c r="I110">
+        <v>670</v>
+      </c>
+      <c r="J110">
+        <v>93.92</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>99</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Lashun</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>2.26</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G111">
+        <v>10.97</v>
+      </c>
+      <c r="H111">
+        <v>28.6</v>
+      </c>
+      <c r="I111">
+        <v>426</v>
+      </c>
+      <c r="J111">
+        <v>76.52</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>26</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Muna</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>45.68</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G112">
+        <v>22.65</v>
+      </c>
+      <c r="H112">
+        <v>23</v>
+      </c>
+      <c r="I112">
+        <v>680</v>
+      </c>
+      <c r="J112">
+        <v>116.86</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>172</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Lorenda</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>11.07</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G113">
+        <v>17.53</v>
+      </c>
+      <c r="H113">
+        <v>29.2</v>
+      </c>
+      <c r="I113">
+        <v>495</v>
+      </c>
+      <c r="J113">
+        <v>86.78</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>97</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Selwyn</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>26.62</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G114">
+        <v>15.56</v>
+      </c>
+      <c r="H114">
+        <v>33.9</v>
+      </c>
+      <c r="I114">
+        <v>667</v>
+      </c>
+      <c r="J114">
+        <v>97.39</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>87</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Chauntel</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>28.58</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G115">
+        <v>14.61</v>
+      </c>
+      <c r="H115">
+        <v>27.8</v>
+      </c>
+      <c r="I115">
+        <v>612</v>
+      </c>
+      <c r="J115">
+        <v>87.89</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>68</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Isamu</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>18.47</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G116">
+        <v>19.04</v>
+      </c>
+      <c r="H116">
+        <v>29</v>
+      </c>
+      <c r="I116">
+        <v>549</v>
+      </c>
+      <c r="J116">
+        <v>100.23</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>102</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Shanise</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E117">
+        <v>80.81</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G117">
+        <v>22.8</v>
+      </c>
+      <c r="H117">
+        <v>31.5</v>
+      </c>
+      <c r="I117">
+        <v>1013</v>
+      </c>
+      <c r="J117">
+        <v>96.23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rollo</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>5.97</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G118">
+        <v>11.06</v>
+      </c>
+      <c r="H118">
+        <v>26.8</v>
+      </c>
+      <c r="I118">
+        <v>436</v>
+      </c>
+      <c r="J118">
+        <v>76.03</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>190</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Essie</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>m_orange</t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>7.84</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G119">
+        <v>15.09</v>
+      </c>
+      <c r="H119">
+        <v>-999</v>
+      </c>
+      <c r="I119">
+        <v>449</v>
+      </c>
+      <c r="J119">
+        <v>88.18000000000001</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>88</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Jaydan</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>19.82</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G120">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H120">
+        <v>23.4</v>
+      </c>
+      <c r="I120">
+        <v>504</v>
+      </c>
+      <c r="J120">
+        <v>83.11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>114</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Nikeisha</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>28.09</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G121">
+        <v>20.83</v>
+      </c>
+      <c r="H121">
+        <v>-999</v>
+      </c>
+      <c r="I121">
+        <v>716</v>
+      </c>
+      <c r="J121">
+        <v>123.11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>163</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Darrien</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>32.85</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G122">
+        <v>14.6</v>
+      </c>
+      <c r="H122">
+        <v>20.5</v>
+      </c>
+      <c r="I122">
+        <v>557</v>
+      </c>
+      <c r="J122">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>177</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Jalene</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>22.91</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G123">
+        <v>14.66</v>
+      </c>
+      <c r="H123">
+        <v>27.4</v>
+      </c>
+      <c r="I123">
+        <v>560</v>
+      </c>
+      <c r="J123">
+        <v>114.88</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>170</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Joannah</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>4.96</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G124">
+        <v>13.68</v>
+      </c>
+      <c r="H124">
+        <v>28.3</v>
+      </c>
+      <c r="I124">
+        <v>452</v>
+      </c>
+      <c r="J124">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>159</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Danyel</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G125">
+        <v>12.97</v>
+      </c>
+      <c r="H125">
+        <v>18.4</v>
+      </c>
+      <c r="I125">
+        <v>367</v>
+      </c>
+      <c r="J125">
+        <v>88.19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>131</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rickey</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>male_red</t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>16.74</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G126">
+        <v>18.76</v>
+      </c>
+      <c r="H126">
+        <v>26.3</v>
+      </c>
+      <c r="I126">
+        <v>508</v>
+      </c>
+      <c r="J126">
+        <v>118.56</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>137</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cheng</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>61.93</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>very spotty</t>
+        </is>
+      </c>
+      <c r="G127">
+        <v>20.72</v>
+      </c>
+      <c r="H127">
+        <v>38.5</v>
+      </c>
+      <c r="I127">
+        <v>962</v>
+      </c>
+      <c r="J127">
+        <v>104.66</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>92</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Lucina</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E128">
+        <v>19.55</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G128">
+        <v>14.86</v>
+      </c>
+      <c r="H128">
+        <v>24</v>
+      </c>
+      <c r="I128">
+        <v>499</v>
+      </c>
+      <c r="J128">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>152</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Aylene</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>22.52</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G129">
+        <v>9.23</v>
+      </c>
+      <c r="H129">
+        <v>32</v>
+      </c>
+      <c r="I129">
+        <v>610</v>
+      </c>
+      <c r="J129">
+        <v>97.52</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>76</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Jasson</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>19.73</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G130">
+        <v>15.65</v>
+      </c>
+      <c r="H130">
+        <v>32.6</v>
+      </c>
+      <c r="I130">
+        <v>599</v>
+      </c>
+      <c r="J130">
+        <v>115.89</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>37</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Teara</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E131">
+        <v>28.93</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G131">
+        <v>19.27</v>
+      </c>
+      <c r="H131">
+        <v>20.8</v>
+      </c>
+      <c r="I131">
+        <v>542</v>
+      </c>
+      <c r="J131">
+        <v>86.69</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>117</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Lanson</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>female_Red</t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>63.52</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G132">
+        <v>11.63</v>
+      </c>
+      <c r="H132">
+        <v>32.1</v>
+      </c>
+      <c r="I132">
+        <v>895</v>
+      </c>
+      <c r="J132">
+        <v>98.81</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>194</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Keric</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>f_red</t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>12.82</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G133">
+        <v>14.86</v>
+      </c>
+      <c r="H133">
+        <v>28.3</v>
+      </c>
+      <c r="I133">
+        <v>494</v>
+      </c>
+      <c r="J133">
+        <v>71.01000000000001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>176</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Lavel</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>0.95</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G134">
+        <v>12.76</v>
+      </c>
+      <c r="H134">
+        <v>36.9</v>
+      </c>
+      <c r="I134">
+        <v>518</v>
+      </c>
+      <c r="J134">
+        <v>84.81</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>47</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Yoskar</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>1.12</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G135">
+        <v>11.96</v>
+      </c>
+      <c r="H135">
+        <v>22</v>
+      </c>
+      <c r="I135">
+        <v>350</v>
+      </c>
+      <c r="J135">
+        <v>65.98</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>103</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mamadi</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E136">
+        <v>10.34</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G136">
+        <v>16.48</v>
+      </c>
+      <c r="H136">
+        <v>28.2</v>
+      </c>
+      <c r="I136">
+        <v>476</v>
+      </c>
+      <c r="J136">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>48</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tajay</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E137">
+        <v>28.57</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G137">
+        <v>17.94</v>
+      </c>
+      <c r="H137">
+        <v>29.1</v>
+      </c>
+      <c r="I137">
+        <v>626</v>
+      </c>
+      <c r="J137">
+        <v>120.14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>150</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Gladyce</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E138">
+        <v>18.35</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G138">
+        <v>15.16</v>
+      </c>
+      <c r="H138">
+        <v>23.1</v>
+      </c>
+      <c r="I138">
+        <v>475</v>
+      </c>
+      <c r="J138">
+        <v>111.29</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>90</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Chevonne</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E139">
+        <v>11.07</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G139">
+        <v>18.31</v>
+      </c>
+      <c r="H139">
+        <v>27.8</v>
+      </c>
+      <c r="I139">
+        <v>484</v>
+      </c>
+      <c r="J139">
+        <v>107.69</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>182</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Leshawn</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E140">
+        <v>17.66</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G140">
+        <v>18.78</v>
+      </c>
+      <c r="H140">
+        <v>29.1</v>
+      </c>
+      <c r="I140">
+        <v>554</v>
+      </c>
+      <c r="J140">
+        <v>123.69</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>197</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Tammera</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>female_orange</t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>21.8</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G141">
+        <v>11.9</v>
+      </c>
+      <c r="H141">
+        <v>27.9</v>
+      </c>
+      <c r="I141">
+        <v>564</v>
+      </c>
+      <c r="J141">
+        <v>91.34</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>42</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Courtenay</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>8.19</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G142">
+        <v>21.06</v>
+      </c>
+      <c r="H142">
+        <v>27.8</v>
+      </c>
+      <c r="I142">
+        <v>466</v>
+      </c>
+      <c r="J142">
+        <v>94.62</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>94</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Earlie</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>25.82</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G143">
+        <v>19.08</v>
+      </c>
+      <c r="H143">
+        <v>33.3</v>
+      </c>
+      <c r="I143">
+        <v>644</v>
+      </c>
+      <c r="J143">
+        <v>128.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>157</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Kejuan</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>21.38</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G144">
+        <v>19.26</v>
+      </c>
+      <c r="H144">
+        <v>29.3</v>
+      </c>
+      <c r="I144">
+        <v>568</v>
+      </c>
+      <c r="J144">
+        <v>112.59</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>185</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Nichele</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E145">
+        <v>25.87</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G145">
+        <v>16</v>
+      </c>
+      <c r="H145">
+        <v>-999</v>
+      </c>
+      <c r="I145">
+        <v>667</v>
+      </c>
+      <c r="J145">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B146">
+        <v>107</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ahniyah</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>f_green</t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>22.23</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G146">
+        <v>15.55</v>
+      </c>
+      <c r="H146">
+        <v>22.8</v>
+      </c>
+      <c r="I146">
+        <v>509</v>
+      </c>
+      <c r="J146">
+        <v>103.82</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>53</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Bryahna</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>33.52</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G147">
+        <v>18.56</v>
+      </c>
+      <c r="H147">
+        <v>28.7</v>
+      </c>
+      <c r="I147">
+        <v>653</v>
+      </c>
+      <c r="J147">
+        <v>128.17</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>91</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ralphie</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>19.03</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G148">
+        <v>13.97</v>
+      </c>
+      <c r="H148">
+        <v>-999</v>
+      </c>
+      <c r="I148">
+        <v>497</v>
+      </c>
+      <c r="J148">
+        <v>90.39</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>128</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Emin</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>female_orange</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>19</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G149">
+        <v>12.61</v>
+      </c>
+      <c r="H149">
+        <v>32.1</v>
+      </c>
+      <c r="I149">
+        <v>591</v>
+      </c>
+      <c r="J149">
+        <v>93.76000000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>63</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Albirta</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>26.47</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G150">
+        <v>17.6</v>
+      </c>
+      <c r="H150">
+        <v>28.8</v>
+      </c>
+      <c r="I150">
+        <v>606</v>
+      </c>
+      <c r="J150">
+        <v>119.82</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>109</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>33.88</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G151">
+        <v>16.74</v>
+      </c>
+      <c r="H151">
+        <v>32.6</v>
+      </c>
+      <c r="I151">
+        <v>708</v>
+      </c>
+      <c r="J151">
+        <v>112.12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Krystina</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>20.7</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G152">
+        <v>19.68</v>
+      </c>
+      <c r="H152">
+        <v>35.9</v>
+      </c>
+      <c r="I152">
+        <v>639</v>
+      </c>
+      <c r="J152">
+        <v>118.47</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>199</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Ziyah</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>11.47</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G153">
+        <v>14.79</v>
+      </c>
+      <c r="H153">
+        <v>28.4</v>
+      </c>
+      <c r="I153">
+        <v>478</v>
+      </c>
+      <c r="J153">
+        <v>99.94</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Westland</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>36</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Symone</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>10.59</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G154">
+        <v>7.83</v>
+      </c>
+      <c r="H154">
+        <v>28.1</v>
+      </c>
+      <c r="I154">
+        <v>486</v>
+      </c>
+      <c r="J154">
+        <v>77.45999999999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>123</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tally</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>female_red</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>7.78</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G155">
+        <v>12.85</v>
+      </c>
+      <c r="H155">
+        <v>24.4</v>
+      </c>
+      <c r="I155">
+        <v>428</v>
+      </c>
+      <c r="J155">
+        <v>61.87</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>125</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Angelis</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>24.67</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G156">
+        <v>18.72</v>
+      </c>
+      <c r="H156">
+        <v>34.4</v>
+      </c>
+      <c r="I156">
+        <v>652</v>
+      </c>
+      <c r="J156">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Viona</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>6.71</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G157">
+        <v>11.31</v>
+      </c>
+      <c r="H157">
+        <v>22.7</v>
+      </c>
+      <c r="I157">
+        <v>398</v>
+      </c>
+      <c r="J157">
+        <v>69.84999999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Antoin</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>60.77</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G158">
+        <v>20.52</v>
+      </c>
+      <c r="H158">
+        <v>36.1</v>
+      </c>
+      <c r="I158">
+        <v>914</v>
+      </c>
+      <c r="J158">
+        <v>129.07</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>54</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rodrigo</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>7.28</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G159">
+        <v>12.89</v>
+      </c>
+      <c r="H159">
+        <v>23</v>
+      </c>
+      <c r="I159">
+        <v>403</v>
+      </c>
+      <c r="J159">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>112</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Lota</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>m_purple</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>10.24</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G160">
+        <v>14.34</v>
+      </c>
+      <c r="H160">
+        <v>-999</v>
+      </c>
+      <c r="I160">
+        <v>536</v>
+      </c>
+      <c r="J160">
+        <v>93.29000000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>181</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Linzi</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>female_Orange</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>24.96</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G161">
+        <v>12.43</v>
+      </c>
+      <c r="H161">
+        <v>31.7</v>
+      </c>
+      <c r="I161">
+        <v>623</v>
+      </c>
+      <c r="J161">
+        <v>112.22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>29</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>13.66</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G162">
+        <v>13.91</v>
+      </c>
+      <c r="H162">
+        <v>27.9</v>
+      </c>
+      <c r="I162">
+        <v>506</v>
+      </c>
+      <c r="J162">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>62</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Olympia</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>male_Green</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>28.48</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G163">
+        <v>14.87</v>
+      </c>
+      <c r="H163">
+        <v>33.8</v>
+      </c>
+      <c r="I163">
+        <v>664</v>
+      </c>
+      <c r="J163">
+        <v>128.41</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>18</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Shandell</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>16.22</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G164">
+        <v>17.12</v>
+      </c>
+      <c r="H164">
+        <v>35.8</v>
+      </c>
+      <c r="I164">
+        <v>607</v>
+      </c>
+      <c r="J164">
+        <v>119.58</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>136</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Wafa</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>24.26</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G165">
+        <v>12.91</v>
+      </c>
+      <c r="H165">
+        <v>-999</v>
+      </c>
+      <c r="I165">
+        <v>603</v>
+      </c>
+      <c r="J165">
+        <v>97.01000000000001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>143</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>0.3</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>15.7</v>
+      </c>
+      <c r="H166">
+        <v>-999</v>
+      </c>
+      <c r="I166">
+        <v>435</v>
+      </c>
+      <c r="J166">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>22</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Tanley</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>9.94</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G167">
+        <v>15.04</v>
+      </c>
+      <c r="H167">
+        <v>34.4</v>
+      </c>
+      <c r="I167">
+        <v>548</v>
+      </c>
+      <c r="J167">
+        <v>110.36</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>158</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rayan</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>29.42</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G168">
+        <v>16.73</v>
+      </c>
+      <c r="H168">
+        <v>25.2</v>
+      </c>
+      <c r="I168">
+        <v>589</v>
+      </c>
+      <c r="J168">
+        <v>108.33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B169">
         <v>98</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Kalina</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Renell</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>47.4</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G169">
+        <v>18.76</v>
+      </c>
+      <c r="H169">
+        <v>29.7</v>
+      </c>
+      <c r="I169">
+        <v>745</v>
+      </c>
+      <c r="J169">
+        <v>135.14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>120</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Sherrod</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>62.31</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G170">
+        <v>21.85</v>
+      </c>
+      <c r="H170">
+        <v>33.9</v>
+      </c>
+      <c r="I170">
+        <v>909</v>
+      </c>
+      <c r="J170">
+        <v>121.51</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>74</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Alimatou</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>4.32</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G171">
+        <v>12.1</v>
+      </c>
+      <c r="H171">
+        <v>32.9</v>
+      </c>
+      <c r="I171">
+        <v>493</v>
+      </c>
+      <c r="J171">
+        <v>83.89</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>11</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Lisamarie</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>21.24</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G172">
+        <v>14.72</v>
+      </c>
+      <c r="H172">
+        <v>31.5</v>
+      </c>
+      <c r="I172">
+        <v>595</v>
+      </c>
+      <c r="J172">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>153</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Roland</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>female_purple</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>slightly spotty</t>
-        </is>
-      </c>
-      <c r="G101">
+      <c r="E173">
+        <v>75.91</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G173">
+        <v>20.5</v>
+      </c>
+      <c r="H173">
+        <v>33.8</v>
+      </c>
+      <c r="I173">
+        <v>1003</v>
+      </c>
+      <c r="J173">
+        <v>105.65</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>165</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Caidyn</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>female_Purple</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>16.82</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G174">
+        <v>11.85</v>
+      </c>
+      <c r="H174">
+        <v>31.9</v>
+      </c>
+      <c r="I174">
+        <v>573</v>
+      </c>
+      <c r="J174">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>105</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Natara</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>10.98</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G175">
+        <v>14.19</v>
+      </c>
+      <c r="H175">
+        <v>25.2</v>
+      </c>
+      <c r="I175">
+        <v>459</v>
+      </c>
+      <c r="J175">
+        <v>104.38</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>77</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Altovise</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>13.47</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G176">
+        <v>12.01</v>
+      </c>
+      <c r="H176">
+        <v>21.5</v>
+      </c>
+      <c r="I176">
+        <v>431</v>
+      </c>
+      <c r="J176">
+        <v>81.26000000000001</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>196</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>male_green</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>39.35</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G177">
+        <v>17.59</v>
+      </c>
+      <c r="H177">
+        <v>37.5</v>
+      </c>
+      <c r="I177">
+        <v>783</v>
+      </c>
+      <c r="J177">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>175</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Varina</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>f_green</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>57.56</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G178">
+        <v>18.91</v>
+      </c>
+      <c r="H178">
+        <v>22.1</v>
+      </c>
+      <c r="I178">
+        <v>744</v>
+      </c>
+      <c r="J178">
+        <v>123.65</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>52</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Vernal</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>female_Green</t>
+        </is>
+      </c>
+      <c r="E179">
         <v>14.86</v>
       </c>
-      <c r="H101">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G179">
+        <v>13.15</v>
+      </c>
+      <c r="H179">
+        <v>29.7</v>
+      </c>
+      <c r="I179">
+        <v>524</v>
+      </c>
+      <c r="J179">
+        <v>72.45999999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>149</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Willena</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>female_Orange</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>3.15</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G180">
+        <v>9.67</v>
+      </c>
+      <c r="H180">
+        <v>21.9</v>
+      </c>
+      <c r="I180">
+        <v>365</v>
+      </c>
+      <c r="J180">
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>171</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Markell</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>f_purple</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>2.13</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G181">
+        <v>11.38</v>
+      </c>
+      <c r="H181">
+        <v>21.8</v>
+      </c>
+      <c r="I181">
+        <v>361</v>
+      </c>
+      <c r="J181">
+        <v>70.81999999999999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>64</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Vernal</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>female_green</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G182">
+        <v>7.66</v>
+      </c>
+      <c r="H182">
+        <v>32.6</v>
+      </c>
+      <c r="I182">
+        <v>531</v>
+      </c>
+      <c r="J182">
+        <v>92.70999999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>122</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Doc</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>20.82</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G183">
+        <v>13.76</v>
+      </c>
+      <c r="H183">
+        <v>27.4</v>
+      </c>
+      <c r="I183">
+        <v>550</v>
+      </c>
+      <c r="J183">
+        <v>102.92</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>28</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G184">
+        <v>17.46</v>
+      </c>
+      <c r="H184">
+        <v>28</v>
+      </c>
+      <c r="I184">
+        <v>481</v>
+      </c>
+      <c r="J184">
+        <v>112.32</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>127</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Roderica</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>6.08</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G185">
+        <v>13.94</v>
+      </c>
+      <c r="H185">
+        <v>41</v>
+      </c>
+      <c r="I185">
+        <v>595</v>
+      </c>
+      <c r="J185">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>55</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Henrietta</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>13.5</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G186">
+        <v>13.59</v>
+      </c>
+      <c r="H186">
+        <v>26</v>
+      </c>
+      <c r="I186">
+        <v>476</v>
+      </c>
+      <c r="J186">
+        <v>105.59</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>126</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Gean</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>21.59</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G187">
+        <v>14.09</v>
+      </c>
+      <c r="H187">
+        <v>34.6</v>
+      </c>
+      <c r="I187">
+        <v>635</v>
+      </c>
+      <c r="J187">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Jacquelynn</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>33.8</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G188">
+        <v>19.64</v>
+      </c>
+      <c r="H188">
+        <v>29</v>
+      </c>
+      <c r="I188">
+        <v>659</v>
+      </c>
+      <c r="J188">
+        <v>108.08</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>72</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Vicktoria</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>3.96</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G189">
+        <v>15.11</v>
+      </c>
+      <c r="H189">
+        <v>33.7</v>
+      </c>
+      <c r="I189">
+        <v>503</v>
+      </c>
+      <c r="J189">
+        <v>93.06999999999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>187</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Shakeema</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>male_purple</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G190">
+        <v>17.77</v>
+      </c>
+      <c r="H190">
+        <v>32.9</v>
+      </c>
+      <c r="I190">
+        <v>528</v>
+      </c>
+      <c r="J190">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>89</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Lizzie</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>f_Orange</t>
+        </is>
+      </c>
+      <c r="E191">
+        <v>7.13</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G191">
+        <v>12.24</v>
+      </c>
+      <c r="H191">
+        <v>30.1</v>
+      </c>
+      <c r="I191">
+        <v>486</v>
+      </c>
+      <c r="J191">
+        <v>90.53</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>17</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Zahniya</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>female_Green</t>
+        </is>
+      </c>
+      <c r="E192">
+        <v>12.79</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G192">
+        <v>10.93</v>
+      </c>
+      <c r="H192">
+        <v>30.2</v>
+      </c>
+      <c r="I192">
+        <v>510</v>
+      </c>
+      <c r="J192">
+        <v>105.07</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>173</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Xiomara</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E193">
+        <v>13.58</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G193">
+        <v>11.18</v>
+      </c>
+      <c r="H193">
+        <v>18.4</v>
+      </c>
+      <c r="I193">
+        <v>396</v>
+      </c>
+      <c r="J193">
+        <v>106.61</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>24</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Precilla</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E194">
+        <v>32.24</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G194">
+        <v>15.94</v>
+      </c>
+      <c r="H194">
+        <v>24</v>
+      </c>
+      <c r="I194">
+        <v>596</v>
+      </c>
+      <c r="J194">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>113</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rudi</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>male_Purple</t>
+        </is>
+      </c>
+      <c r="E195">
+        <v>32.78</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G195">
+        <v>13.1</v>
+      </c>
+      <c r="H195">
+        <v>34.5</v>
+      </c>
+      <c r="I195">
+        <v>711</v>
+      </c>
+      <c r="J195">
+        <v>122.47</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>164</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Tamotsu</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E196">
+        <v>35.65</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G196">
+        <v>17.03</v>
+      </c>
+      <c r="H196">
+        <v>27.9</v>
+      </c>
+      <c r="I196">
+        <v>657</v>
+      </c>
+      <c r="J196">
+        <v>107.59</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>138</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Geno</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>female_Green</t>
+        </is>
+      </c>
+      <c r="E197">
+        <v>3.49</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="G197">
+        <v>7.46</v>
+      </c>
+      <c r="H197">
+        <v>34.4</v>
+      </c>
+      <c r="I197">
+        <v>506</v>
+      </c>
+      <c r="J197">
+        <v>63.08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>179</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cherica</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>female_purple</t>
+        </is>
+      </c>
+      <c r="E198">
+        <v>18.49</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G198">
+        <v>16.24</v>
+      </c>
+      <c r="H198">
+        <v>25.9</v>
+      </c>
+      <c r="I198">
+        <v>519</v>
+      </c>
+      <c r="J198">
+        <v>114.25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>58</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Calvert</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>29.25</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G199">
+        <v>17.69</v>
+      </c>
+      <c r="H199">
+        <v>30.4</v>
+      </c>
+      <c r="I199">
+        <v>640</v>
+      </c>
+      <c r="J199">
+        <v>126.18</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>132</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Neil</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>f_green</t>
+        </is>
+      </c>
+      <c r="E200">
+        <v>46.55</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>spotty</t>
+        </is>
+      </c>
+      <c r="G200">
+        <v>19.18</v>
+      </c>
+      <c r="H200">
         <v>-999</v>
       </c>
-      <c r="I101">
-        <v>552</v>
-      </c>
-      <c r="J101">
-        <v>86.76000000000001</v>
+      <c r="I200">
+        <v>726</v>
+      </c>
+      <c r="J200">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Pete</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>male_orange</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>38.58</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>slightly spotty</t>
+        </is>
+      </c>
+      <c r="G201">
+        <v>20.82</v>
+      </c>
+      <c r="H201">
+        <v>35.6</v>
+      </c>
+      <c r="I201">
+        <v>766</v>
+      </c>
+      <c r="J201">
+        <v>120.06</v>
       </c>
     </row>
   </sheetData>
